--- a/_data/rd/temporal/Monto.xlsx
+++ b/_data/rd/temporal/Monto.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TEMPORAL\4D4R\TRABAJO\dashboard\senasir\_data\rd\temporal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acueto\Desktop\MAYO\RD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80983ADD-DD53-4FA4-8ED5-A00E872BAA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
   </bookViews>
   <sheets>
     <sheet name="RD" sheetId="7" r:id="rId1"/>
@@ -24,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RD!$A$1:$Q$109</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -522,10 +521,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;Bs&quot;* #,##0.00_-;\-&quot;Bs&quot;* #,##0.00_-;_-&quot;Bs&quot;* &quot;-&quot;??_-;_-@"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;Bs&quot;* #,##0.00_-;\-&quot;Bs&quot;* #,##0.00_-;_-&quot;Bs&quot;* &quot;-&quot;??_-;_-@"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -1324,7 +1323,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19"/>
   </cellStyleXfs>
   <cellXfs count="97">
@@ -1356,23 +1355,23 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1381,19 +1380,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1408,20 +1407,20 @@
     <xf numFmtId="4" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1435,10 +1434,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="8" fillId="4" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1499,26 +1498,26 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1533,7 +1532,7 @@
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1979,12 +1978,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2080,7 +2079,7 @@
       </c>
       <c r="I2" s="51">
         <f>+'SR - Planilla Desagregado'!G13</f>
-        <v>0</v>
+        <v>10738800</v>
       </c>
       <c r="J2" s="51">
         <f>+'SR - Planilla Desagregado'!H13</f>
@@ -2146,7 +2145,7 @@
       </c>
       <c r="I3" s="51">
         <f>+'SR - Planilla Desagregado'!G14</f>
-        <v>0</v>
+        <v>6638100</v>
       </c>
       <c r="J3" s="51">
         <f>+'SR - Planilla Desagregado'!H14</f>
@@ -2212,7 +2211,7 @@
       </c>
       <c r="I4" s="51">
         <f>+'SR - Planilla Desagregado'!G16</f>
-        <v>0</v>
+        <v>256500</v>
       </c>
       <c r="J4" s="51">
         <f>+'SR - Planilla Desagregado'!H16</f>
@@ -2278,7 +2277,7 @@
       </c>
       <c r="I5" s="51">
         <f>+'SR - Planilla Desagregado'!G17</f>
-        <v>0</v>
+        <v>137100</v>
       </c>
       <c r="J5" s="51">
         <f>+'SR - Planilla Desagregado'!H17</f>
@@ -2344,7 +2343,7 @@
       </c>
       <c r="I6" s="51">
         <f>+'SR - Tit - DH'!G22</f>
-        <v>0</v>
+        <v>6054300</v>
       </c>
       <c r="J6" s="51">
         <f>+'SR - Tit - DH'!H22</f>
@@ -2410,7 +2409,7 @@
       </c>
       <c r="I7" s="51">
         <f>+'SR - Tit - DH'!G23</f>
-        <v>0</v>
+        <v>4941000</v>
       </c>
       <c r="J7" s="51">
         <f>+'SR - Tit - DH'!H23</f>
@@ -2476,7 +2475,7 @@
       </c>
       <c r="I8" s="51">
         <f>+'SR - Tit - DH'!G25</f>
-        <v>0</v>
+        <v>120600</v>
       </c>
       <c r="J8" s="51">
         <f>+'SR - Tit - DH'!H25</f>
@@ -2542,7 +2541,7 @@
       </c>
       <c r="I9" s="51">
         <f>+'SR - Tit - DH'!G26</f>
-        <v>0</v>
+        <v>6654600</v>
       </c>
       <c r="J9" s="51">
         <f>+'SR - Tit - DH'!H26</f>
@@ -2608,7 +2607,7 @@
       </c>
       <c r="I10" s="51">
         <f>+'SR - Tipo Renta'!F14</f>
-        <v>0</v>
+        <v>16137900</v>
       </c>
       <c r="J10" s="51">
         <f>+'SR - Tipo Renta'!G14</f>
@@ -2674,7 +2673,7 @@
       </c>
       <c r="I11" s="51">
         <f>+'SR - Tipo Renta'!F15</f>
-        <v>0</v>
+        <v>1632600</v>
       </c>
       <c r="J11" s="51">
         <f>+'SR - Tipo Renta'!G15</f>
@@ -2806,7 +2805,7 @@
       </c>
       <c r="I13" s="51">
         <f>+'SR - Clase Renta'!F15</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="J13" s="51">
         <f>+'SR - Clase Renta'!G15</f>
@@ -2938,7 +2937,7 @@
       </c>
       <c r="I15" s="51">
         <f>+'SR - Clase Renta'!F17</f>
-        <v>0</v>
+        <v>3900</v>
       </c>
       <c r="J15" s="51">
         <f>+'SR - Clase Renta'!G17</f>
@@ -3004,7 +3003,7 @@
       </c>
       <c r="I16" s="51">
         <f>+'SR - Clase Renta'!F18</f>
-        <v>0</v>
+        <v>22800</v>
       </c>
       <c r="J16" s="51">
         <f>+'SR - Clase Renta'!G18</f>
@@ -3070,7 +3069,7 @@
       </c>
       <c r="I17" s="51">
         <f>+'SR - Clase Renta'!F19</f>
-        <v>0</v>
+        <v>28500</v>
       </c>
       <c r="J17" s="51">
         <f>+'SR - Clase Renta'!G19</f>
@@ -3136,7 +3135,7 @@
       </c>
       <c r="I18" s="51">
         <f>+'SR - Clase Renta'!F20</f>
-        <v>0</v>
+        <v>277500</v>
       </c>
       <c r="J18" s="51">
         <f>+'SR - Clase Renta'!G20</f>
@@ -3202,7 +3201,7 @@
       </c>
       <c r="I19" s="51">
         <f>+'SR - Clase Renta'!F21</f>
-        <v>0</v>
+        <v>521400</v>
       </c>
       <c r="J19" s="51">
         <f>+'SR - Clase Renta'!G21</f>
@@ -3268,7 +3267,7 @@
       </c>
       <c r="I20" s="51">
         <f>+'SR - Clase Renta'!F22</f>
-        <v>0</v>
+        <v>6747900</v>
       </c>
       <c r="J20" s="51">
         <f>+'SR - Clase Renta'!G22</f>
@@ -3334,7 +3333,7 @@
       </c>
       <c r="I21" s="51">
         <f>+'SR - Clase Renta'!F23</f>
-        <v>0</v>
+        <v>10167900</v>
       </c>
       <c r="J21" s="51">
         <f>+'SR - Clase Renta'!G23</f>
@@ -3400,7 +3399,7 @@
       </c>
       <c r="I22" s="51">
         <f>+'SR - Sector'!F14</f>
-        <v>0</v>
+        <v>384300</v>
       </c>
       <c r="J22" s="51">
         <f>+'SR - Sector'!G14</f>
@@ -3466,7 +3465,7 @@
       </c>
       <c r="I23" s="51">
         <f>+'SR - Sector'!F15</f>
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="J23" s="51">
         <f>+'SR - Sector'!G15</f>
@@ -3532,7 +3531,7 @@
       </c>
       <c r="I24" s="51">
         <f>+'SR - Sector'!F16</f>
-        <v>0</v>
+        <v>90300</v>
       </c>
       <c r="J24" s="51">
         <f>+'SR - Sector'!G16</f>
@@ -3598,7 +3597,7 @@
       </c>
       <c r="I25" s="51">
         <f>+'SR - Sector'!F17</f>
-        <v>0</v>
+        <v>25200</v>
       </c>
       <c r="J25" s="51">
         <f>+'SR - Sector'!G17</f>
@@ -3664,7 +3663,7 @@
       </c>
       <c r="I26" s="51">
         <f>+'SR - Sector'!F18</f>
-        <v>0</v>
+        <v>57000</v>
       </c>
       <c r="J26" s="51">
         <f>+'SR - Sector'!G18</f>
@@ -3730,7 +3729,7 @@
       </c>
       <c r="I27" s="51">
         <f>+'SR - Sector'!F19</f>
-        <v>0</v>
+        <v>24300</v>
       </c>
       <c r="J27" s="51">
         <f>+'SR - Sector'!G19</f>
@@ -3796,7 +3795,7 @@
       </c>
       <c r="I28" s="51">
         <f>+'SR - Sector'!F20</f>
-        <v>0</v>
+        <v>70800</v>
       </c>
       <c r="J28" s="51">
         <f>+'SR - Sector'!G20</f>
@@ -3862,7 +3861,7 @@
       </c>
       <c r="I29" s="51">
         <f>+'SR - Sector'!F21</f>
-        <v>0</v>
+        <v>212100</v>
       </c>
       <c r="J29" s="51">
         <f>+'SR - Sector'!G21</f>
@@ -3928,7 +3927,7 @@
       </c>
       <c r="I30" s="51">
         <f>+'SR - Sector'!F22</f>
-        <v>0</v>
+        <v>137700</v>
       </c>
       <c r="J30" s="51">
         <f>+'SR - Sector'!G22</f>
@@ -3994,7 +3993,7 @@
       </c>
       <c r="I31" s="51">
         <f>+'SR - Sector'!F23</f>
-        <v>0</v>
+        <v>73800</v>
       </c>
       <c r="J31" s="51">
         <f>+'SR - Sector'!G23</f>
@@ -4060,7 +4059,7 @@
       </c>
       <c r="I32" s="51">
         <f>+'SR - Sector'!F24</f>
-        <v>0</v>
+        <v>49200</v>
       </c>
       <c r="J32" s="51">
         <f>+'SR - Sector'!G24</f>
@@ -4192,7 +4191,7 @@
       </c>
       <c r="I34" s="51">
         <f>+'SR - Sector'!F26</f>
-        <v>0</v>
+        <v>746700</v>
       </c>
       <c r="J34" s="51">
         <f>+'SR - Sector'!G26</f>
@@ -4258,7 +4257,7 @@
       </c>
       <c r="I35" s="51">
         <f>+'SR - Sector'!F27</f>
-        <v>0</v>
+        <v>102900</v>
       </c>
       <c r="J35" s="51">
         <f>+'SR - Sector'!G27</f>
@@ -4324,7 +4323,7 @@
       </c>
       <c r="I36" s="51">
         <f>+'SR - Sector'!F28</f>
-        <v>0</v>
+        <v>1832100</v>
       </c>
       <c r="J36" s="51">
         <f>+'SR - Sector'!G28</f>
@@ -4390,7 +4389,7 @@
       </c>
       <c r="I37" s="51">
         <f>+'SR - Sector'!F29</f>
-        <v>0</v>
+        <v>824400</v>
       </c>
       <c r="J37" s="51">
         <f>+'SR - Sector'!G29</f>
@@ -4456,7 +4455,7 @@
       </c>
       <c r="I38" s="51">
         <f>+'SR - Sector'!F30</f>
-        <v>0</v>
+        <v>923400</v>
       </c>
       <c r="J38" s="51">
         <f>+'SR - Sector'!G30</f>
@@ -4522,7 +4521,7 @@
       </c>
       <c r="I39" s="51">
         <f>+'SR - Sector'!F31</f>
-        <v>0</v>
+        <v>1136400</v>
       </c>
       <c r="J39" s="51">
         <f>+'SR - Sector'!G31</f>
@@ -4588,7 +4587,7 @@
       </c>
       <c r="I40" s="51">
         <f>+'SR - Sector'!F32</f>
-        <v>0</v>
+        <v>230100</v>
       </c>
       <c r="J40" s="51">
         <f>+'SR - Sector'!G32</f>
@@ -4654,7 +4653,7 @@
       </c>
       <c r="I41" s="51">
         <f>+'SR - Sector'!F33</f>
-        <v>0</v>
+        <v>720000</v>
       </c>
       <c r="J41" s="51">
         <f>+'SR - Sector'!G33</f>
@@ -4720,7 +4719,7 @@
       </c>
       <c r="I42" s="51">
         <f>+'SR - Sector'!F34</f>
-        <v>0</v>
+        <v>535500</v>
       </c>
       <c r="J42" s="51">
         <f>+'SR - Sector'!G34</f>
@@ -4786,7 +4785,7 @@
       </c>
       <c r="I43" s="51">
         <f>+'SR - Sector'!F35</f>
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="J43" s="51">
         <f>+'SR - Sector'!G35</f>
@@ -4852,7 +4851,7 @@
       </c>
       <c r="I44" s="51">
         <f>+'SR - Sector'!F36</f>
-        <v>0</v>
+        <v>1320600</v>
       </c>
       <c r="J44" s="51">
         <f>+'SR - Sector'!G36</f>
@@ -4918,7 +4917,7 @@
       </c>
       <c r="I45" s="51">
         <f>+'SR - Sector'!F37</f>
-        <v>0</v>
+        <v>360600</v>
       </c>
       <c r="J45" s="51">
         <f>+'SR - Sector'!G37</f>
@@ -4984,7 +4983,7 @@
       </c>
       <c r="I46" s="51">
         <f>+'SR - Sector'!F38</f>
-        <v>0</v>
+        <v>4496400</v>
       </c>
       <c r="J46" s="51">
         <f>+'SR - Sector'!G38</f>
@@ -5050,7 +5049,7 @@
       </c>
       <c r="I47" s="51">
         <f>+'SR - Sector'!F39</f>
-        <v>0</v>
+        <v>231300</v>
       </c>
       <c r="J47" s="51">
         <f>+'SR - Sector'!G39</f>
@@ -5116,7 +5115,7 @@
       </c>
       <c r="I48" s="51">
         <f>+'SR - Sector'!F40</f>
-        <v>0</v>
+        <v>143400</v>
       </c>
       <c r="J48" s="51">
         <f>+'SR - Sector'!G40</f>
@@ -5182,7 +5181,7 @@
       </c>
       <c r="I49" s="51">
         <f>+'SR - Sector'!F41</f>
-        <v>0</v>
+        <v>648000</v>
       </c>
       <c r="J49" s="51">
         <f>+'SR - Sector'!G41</f>
@@ -5248,7 +5247,7 @@
       </c>
       <c r="I50" s="51">
         <f>+'SR - Sector'!F42</f>
-        <v>0</v>
+        <v>492600</v>
       </c>
       <c r="J50" s="51">
         <f>+'SR - Sector'!G42</f>
@@ -5314,7 +5313,7 @@
       </c>
       <c r="I51" s="51">
         <f>+'SR - Sector'!F43</f>
-        <v>0</v>
+        <v>51000</v>
       </c>
       <c r="J51" s="51">
         <f>+'SR - Sector'!G43</f>
@@ -5380,7 +5379,7 @@
       </c>
       <c r="I52" s="51">
         <f>+'SR - Sector'!F44</f>
-        <v>0</v>
+        <v>619800</v>
       </c>
       <c r="J52" s="51">
         <f>+'SR - Sector'!G44</f>
@@ -5446,7 +5445,7 @@
       </c>
       <c r="I53" s="51">
         <f>+'SR - Sector'!F45</f>
-        <v>0</v>
+        <v>164100</v>
       </c>
       <c r="J53" s="51">
         <f>+'SR - Sector'!G45</f>
@@ -5512,7 +5511,7 @@
       </c>
       <c r="I54" s="51">
         <f>+'SR - Sector'!F46</f>
-        <v>0</v>
+        <v>348600</v>
       </c>
       <c r="J54" s="51">
         <f>+'SR - Sector'!G46</f>
@@ -5578,7 +5577,7 @@
       </c>
       <c r="I55" s="51">
         <f>+'SR - Sector'!F47</f>
-        <v>0</v>
+        <v>70500</v>
       </c>
       <c r="J55" s="51">
         <f>+'SR - Sector'!G47</f>
@@ -5644,7 +5643,7 @@
       </c>
       <c r="I56" s="51">
         <f>+'SR - Sector'!F48</f>
-        <v>0</v>
+        <v>358500</v>
       </c>
       <c r="J56" s="51">
         <f>+'SR - Sector'!G48</f>
@@ -5710,7 +5709,7 @@
       </c>
       <c r="I57" s="51">
         <f>+'SR - Sector'!F49</f>
-        <v>0</v>
+        <v>57300</v>
       </c>
       <c r="J57" s="51">
         <f>+'SR - Sector'!G49</f>
@@ -5776,7 +5775,7 @@
       </c>
       <c r="I58" s="51">
         <f>+'SR - Sector'!F50</f>
-        <v>0</v>
+        <v>86100</v>
       </c>
       <c r="J58" s="51">
         <f>+'SR - Sector'!G50</f>
@@ -5842,7 +5841,7 @@
       </c>
       <c r="I59" s="51">
         <f>+'SR - Sector'!F51</f>
-        <v>0</v>
+        <v>140400</v>
       </c>
       <c r="J59" s="51">
         <f>+'SR - Sector'!G51</f>
@@ -5908,7 +5907,7 @@
       </c>
       <c r="I60" s="51">
         <f>+'SR - Regional'!G13</f>
-        <v>0</v>
+        <v>5643300</v>
       </c>
       <c r="J60" s="51">
         <f>+'SR - Regional'!H13</f>
@@ -5974,7 +5973,7 @@
       </c>
       <c r="I61" s="51">
         <f>+'SR - Regional'!G14</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J61" s="51">
         <f>+'SR - Regional'!H14</f>
@@ -6040,7 +6039,7 @@
       </c>
       <c r="I62" s="51">
         <f>+'SR - Regional'!G15</f>
-        <v>0</v>
+        <v>80100</v>
       </c>
       <c r="J62" s="51">
         <f>+'SR - Regional'!H15</f>
@@ -6106,7 +6105,7 @@
       </c>
       <c r="I63" s="51">
         <f>+'SR - Regional'!G16</f>
-        <v>0</v>
+        <v>15300</v>
       </c>
       <c r="J63" s="51">
         <f>+'SR - Regional'!H16</f>
@@ -6172,7 +6171,7 @@
       </c>
       <c r="I64" s="51">
         <f>+'SR - Regional'!G17</f>
-        <v>0</v>
+        <v>3988500</v>
       </c>
       <c r="J64" s="51">
         <f>+'SR - Regional'!H17</f>
@@ -6238,7 +6237,7 @@
       </c>
       <c r="I65" s="51">
         <f>+'SR - Regional'!G18</f>
-        <v>0</v>
+        <v>182700</v>
       </c>
       <c r="J65" s="51">
         <f>+'SR - Regional'!H18</f>
@@ -6304,7 +6303,7 @@
       </c>
       <c r="I66" s="51">
         <f>+'SR - Regional'!G19</f>
-        <v>0</v>
+        <v>19200</v>
       </c>
       <c r="J66" s="51">
         <f>+'SR - Regional'!H19</f>
@@ -6370,7 +6369,7 @@
       </c>
       <c r="I67" s="51">
         <f>+'SR - Regional'!G20</f>
-        <v>0</v>
+        <v>8400</v>
       </c>
       <c r="J67" s="51">
         <f>+'SR - Regional'!H20</f>
@@ -6436,7 +6435,7 @@
       </c>
       <c r="I68" s="51">
         <f>+'SR - Regional'!G21</f>
-        <v>0</v>
+        <v>2384400</v>
       </c>
       <c r="J68" s="51">
         <f>+'SR - Regional'!H21</f>
@@ -6502,7 +6501,7 @@
       </c>
       <c r="I69" s="51">
         <f>+'SR - Regional'!G22</f>
-        <v>0</v>
+        <v>126300</v>
       </c>
       <c r="J69" s="51">
         <f>+'SR - Regional'!H22</f>
@@ -6568,7 +6567,7 @@
       </c>
       <c r="I70" s="51">
         <f>+'SR - Regional'!G23</f>
-        <v>0</v>
+        <v>26400</v>
       </c>
       <c r="J70" s="51">
         <f>+'SR - Regional'!H23</f>
@@ -6634,7 +6633,7 @@
       </c>
       <c r="I71" s="51">
         <f>+'SR - Regional'!G24</f>
-        <v>0</v>
+        <v>25200</v>
       </c>
       <c r="J71" s="51">
         <f>+'SR - Regional'!H24</f>
@@ -6700,7 +6699,7 @@
       </c>
       <c r="I72" s="51">
         <f>+'SR - Regional'!G25</f>
-        <v>0</v>
+        <v>36600</v>
       </c>
       <c r="J72" s="51">
         <f>+'SR - Regional'!H25</f>
@@ -6766,7 +6765,7 @@
       </c>
       <c r="I73" s="51">
         <f>+'SR - Regional'!G26</f>
-        <v>0</v>
+        <v>45900</v>
       </c>
       <c r="J73" s="51">
         <f>+'SR - Regional'!H26</f>
@@ -6832,7 +6831,7 @@
       </c>
       <c r="I74" s="51">
         <f>+'SR - Regional'!G27</f>
-        <v>0</v>
+        <v>99900</v>
       </c>
       <c r="J74" s="51">
         <f>+'SR - Regional'!H27</f>
@@ -6898,7 +6897,7 @@
       </c>
       <c r="I75" s="51">
         <f>+'SR - Regional'!G28</f>
-        <v>0</v>
+        <v>4200</v>
       </c>
       <c r="J75" s="51">
         <f>+'SR - Regional'!H28</f>
@@ -6964,7 +6963,7 @@
       </c>
       <c r="I76" s="51">
         <f>+'SR - Regional'!G29</f>
-        <v>0</v>
+        <v>21900</v>
       </c>
       <c r="J76" s="51">
         <f>+'SR - Regional'!H29</f>
@@ -7030,7 +7029,7 @@
       </c>
       <c r="I77" s="51">
         <f>+'SR - Regional'!G30</f>
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="J77" s="51">
         <f>+'SR - Regional'!H30</f>
@@ -7096,7 +7095,7 @@
       </c>
       <c r="I78" s="51">
         <f>+'SR - Regional'!G31</f>
-        <v>0</v>
+        <v>4200</v>
       </c>
       <c r="J78" s="51">
         <f>+'SR - Regional'!H31</f>
@@ -7162,7 +7161,7 @@
       </c>
       <c r="I79" s="51">
         <f>+'SR - Regional'!G32</f>
-        <v>0</v>
+        <v>15900</v>
       </c>
       <c r="J79" s="51">
         <f>+'SR - Regional'!H32</f>
@@ -7294,7 +7293,7 @@
       </c>
       <c r="I81" s="51">
         <f>+'SR - Regional'!G34</f>
-        <v>0</v>
+        <v>1409700</v>
       </c>
       <c r="J81" s="51">
         <f>+'SR - Regional'!H34</f>
@@ -7360,7 +7359,7 @@
       </c>
       <c r="I82" s="51">
         <f>+'SR - Regional'!G35</f>
-        <v>0</v>
+        <v>21600</v>
       </c>
       <c r="J82" s="51">
         <f>+'SR - Regional'!H35</f>
@@ -7426,7 +7425,7 @@
       </c>
       <c r="I83" s="51">
         <f>+'SR - Regional'!G36</f>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="J83" s="51">
         <f>+'SR - Regional'!H36</f>
@@ -7492,7 +7491,7 @@
       </c>
       <c r="I84" s="51">
         <f>+'SR - Regional'!G37</f>
-        <v>0</v>
+        <v>168900</v>
       </c>
       <c r="J84" s="51">
         <f>+'SR - Regional'!H37</f>
@@ -7558,7 +7557,7 @@
       </c>
       <c r="I85" s="51">
         <f>+'SR - Regional'!G38</f>
-        <v>0</v>
+        <v>40500</v>
       </c>
       <c r="J85" s="51">
         <f>+'SR - Regional'!H38</f>
@@ -7690,7 +7689,7 @@
       </c>
       <c r="I87" s="51">
         <f>+'SR - Regional'!G40</f>
-        <v>0</v>
+        <v>1005900</v>
       </c>
       <c r="J87" s="51">
         <f>+'SR - Regional'!H40</f>
@@ -7756,7 +7755,7 @@
       </c>
       <c r="I88" s="51">
         <f>+'SR - Regional'!G41</f>
-        <v>0</v>
+        <v>41700</v>
       </c>
       <c r="J88" s="51">
         <f>+'SR - Regional'!H41</f>
@@ -7822,7 +7821,7 @@
       </c>
       <c r="I89" s="51">
         <f>+'SR - Regional'!G42</f>
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="J89" s="51">
         <f>+'SR - Regional'!H42</f>
@@ -7888,7 +7887,7 @@
       </c>
       <c r="I90" s="51">
         <f>+'SR - Regional'!G43</f>
-        <v>0</v>
+        <v>13200</v>
       </c>
       <c r="J90" s="51">
         <f>+'SR - Regional'!H43</f>
@@ -7954,7 +7953,7 @@
       </c>
       <c r="I91" s="51">
         <f>+'SR - Regional'!G44</f>
-        <v>0</v>
+        <v>34500</v>
       </c>
       <c r="J91" s="51">
         <f>+'SR - Regional'!H44</f>
@@ -8020,7 +8019,7 @@
       </c>
       <c r="I92" s="51">
         <f>+'SR - Regional'!G45</f>
-        <v>0</v>
+        <v>237900</v>
       </c>
       <c r="J92" s="51">
         <f>+'SR - Regional'!H45</f>
@@ -8086,7 +8085,7 @@
       </c>
       <c r="I93" s="51">
         <f>+'SR - Regional'!G46</f>
-        <v>0</v>
+        <v>106800</v>
       </c>
       <c r="J93" s="51">
         <f>+'SR - Regional'!H46</f>
@@ -8152,7 +8151,7 @@
       </c>
       <c r="I94" s="51">
         <f>+'SR - Regional'!G47</f>
-        <v>0</v>
+        <v>923700</v>
       </c>
       <c r="J94" s="51">
         <f>+'SR - Regional'!H47</f>
@@ -8218,7 +8217,7 @@
       </c>
       <c r="I95" s="51">
         <f>+'SR - Regional'!G48</f>
-        <v>0</v>
+        <v>20700</v>
       </c>
       <c r="J95" s="51">
         <f>+'SR - Regional'!H48</f>
@@ -8284,7 +8283,7 @@
       </c>
       <c r="I96" s="51">
         <f>+'SR - Regional'!G49</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J96" s="51">
         <f>+'SR - Regional'!H49</f>
@@ -8350,7 +8349,7 @@
       </c>
       <c r="I97" s="51">
         <f>+'SR - Regional'!G50</f>
-        <v>0</v>
+        <v>602700</v>
       </c>
       <c r="J97" s="51">
         <f>+'SR - Regional'!H50</f>
@@ -8416,7 +8415,7 @@
       </c>
       <c r="I98" s="51">
         <f>+'SR - Regional'!G51</f>
-        <v>0</v>
+        <v>22800</v>
       </c>
       <c r="J98" s="51">
         <f>+'SR - Regional'!H51</f>
@@ -8482,7 +8481,7 @@
       </c>
       <c r="I99" s="51">
         <f>+'SR - Regional'!G52</f>
-        <v>0</v>
+        <v>72000</v>
       </c>
       <c r="J99" s="51">
         <f>+'SR - Regional'!H52</f>
@@ -8548,7 +8547,7 @@
       </c>
       <c r="I100" s="51">
         <f>+'SR - Regional'!G53</f>
-        <v>0</v>
+        <v>44700</v>
       </c>
       <c r="J100" s="51">
         <f>+'SR - Regional'!H53</f>
@@ -8614,7 +8613,7 @@
       </c>
       <c r="I101" s="51">
         <f>+'SR - Regional'!G54</f>
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="J101" s="51">
         <f>+'SR - Regional'!H54</f>
@@ -8680,7 +8679,7 @@
       </c>
       <c r="I102" s="51">
         <f>+'SR - Regional'!G55</f>
-        <v>0</v>
+        <v>134700</v>
       </c>
       <c r="J102" s="51">
         <f>+'SR - Regional'!H55</f>
@@ -8746,7 +8745,7 @@
       </c>
       <c r="I103" s="51">
         <f>+'SR - Regional'!G56</f>
-        <v>0</v>
+        <v>45000</v>
       </c>
       <c r="J103" s="51">
         <f>+'SR - Regional'!H56</f>
@@ -8812,7 +8811,7 @@
       </c>
       <c r="I104" s="51">
         <f>+'SR - Regional'!G57</f>
-        <v>0</v>
+        <v>13800</v>
       </c>
       <c r="J104" s="51">
         <f>+'SR - Regional'!H57</f>
@@ -8878,7 +8877,7 @@
       </c>
       <c r="I105" s="51">
         <f>+'SR - Regional'!G58</f>
-        <v>0</v>
+        <v>9300</v>
       </c>
       <c r="J105" s="51">
         <f>+'SR - Regional'!H58</f>
@@ -8944,7 +8943,7 @@
       </c>
       <c r="I106" s="51">
         <f>+'SR - Regional'!G59</f>
-        <v>0</v>
+        <v>9600</v>
       </c>
       <c r="J106" s="51">
         <f>+'SR - Regional'!H59</f>
@@ -9010,7 +9009,7 @@
       </c>
       <c r="I107" s="51">
         <f>+'SR - Regional'!G60</f>
-        <v>0</v>
+        <v>5700</v>
       </c>
       <c r="J107" s="51">
         <f>+'SR - Regional'!H60</f>
@@ -9076,7 +9075,7 @@
       </c>
       <c r="I108" s="51">
         <f>+'SR - Regional'!G61</f>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="J108" s="51">
         <f>+'SR - Regional'!H61</f>
@@ -9142,7 +9141,7 @@
       </c>
       <c r="I109" s="51">
         <f>+'SR - Regional'!G62</f>
-        <v>0</v>
+        <v>41400</v>
       </c>
       <c r="J109" s="51">
         <f>+'SR - Regional'!H62</f>
@@ -9178,21 +9177,21 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q109" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:Q109"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A6:P1000"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:F19"/>
+      <selection activeCell="G16" sqref="G16:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -9389,7 +9388,9 @@
       <c r="F13" s="13">
         <v>10797300</v>
       </c>
-      <c r="G13" s="13"/>
+      <c r="G13" s="13">
+        <v>10738800</v>
+      </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
@@ -9400,7 +9401,7 @@
       <c r="O13" s="13"/>
       <c r="P13" s="16">
         <f t="shared" ref="P13:P14" si="0">SUM(C13:O13)</f>
-        <v>43388700</v>
+        <v>54127500</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -9420,7 +9421,9 @@
       <c r="F14" s="13">
         <v>6641400</v>
       </c>
-      <c r="G14" s="13"/>
+      <c r="G14" s="13">
+        <v>6638100</v>
+      </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
@@ -9431,7 +9434,7 @@
       <c r="O14" s="13"/>
       <c r="P14" s="16">
         <f t="shared" si="0"/>
-        <v>26644500</v>
+        <v>33282600</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -9457,7 +9460,7 @@
       </c>
       <c r="G15" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>17376900</v>
       </c>
       <c r="H15" s="17">
         <f t="shared" si="2"/>
@@ -9493,7 +9496,7 @@
       </c>
       <c r="P15" s="18">
         <f t="shared" si="1"/>
-        <v>70033200</v>
+        <v>87410100</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -9515,7 +9518,9 @@
       <c r="F16" s="13">
         <v>263100</v>
       </c>
-      <c r="G16" s="13"/>
+      <c r="G16" s="13">
+        <v>256500</v>
+      </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
@@ -9526,7 +9531,7 @@
       <c r="O16" s="13"/>
       <c r="P16" s="16">
         <f t="shared" ref="P16:P17" si="3">SUM(C16:O16)</f>
-        <v>1077900</v>
+        <v>1334400</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -9546,7 +9551,9 @@
       <c r="F17" s="13">
         <v>138300</v>
       </c>
-      <c r="G17" s="13"/>
+      <c r="G17" s="13">
+        <v>137100</v>
+      </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
@@ -9557,7 +9564,7 @@
       <c r="O17" s="13"/>
       <c r="P17" s="16">
         <f t="shared" si="3"/>
-        <v>562500</v>
+        <v>699600</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -9583,7 +9590,7 @@
       </c>
       <c r="G18" s="19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>393600</v>
       </c>
       <c r="H18" s="19">
         <f t="shared" si="5"/>
@@ -9619,7 +9626,7 @@
       </c>
       <c r="P18" s="18">
         <f t="shared" si="4"/>
-        <v>1640400</v>
+        <v>2034000</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -9645,7 +9652,7 @@
       </c>
       <c r="G19" s="20">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>17770500</v>
       </c>
       <c r="H19" s="20">
         <f t="shared" si="6"/>
@@ -9681,7 +9688,7 @@
       </c>
       <c r="P19" s="16">
         <f t="shared" si="6"/>
-        <v>71673600</v>
+        <v>89444100</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1"/>
@@ -10700,11 +10707,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:P1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:O12"/>
+    <sheetView topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -10813,10 +10820,10 @@
       <c r="P10" s="2"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="82"/>
+      <c r="B11" s="88"/>
       <c r="C11" s="78">
         <v>2024</v>
       </c>
@@ -10831,16 +10838,16 @@
       <c r="L11" s="79"/>
       <c r="M11" s="79"/>
       <c r="N11" s="79"/>
-      <c r="O11" s="83"/>
-      <c r="P11" s="84" t="s">
+      <c r="O11" s="84"/>
+      <c r="P11" s="85" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="86" t="s">
+      <c r="A12" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="87"/>
+      <c r="B12" s="90"/>
       <c r="C12" s="5" t="s">
         <v>6</v>
       </c>
@@ -10880,13 +10887,13 @@
       <c r="O12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P12" s="85"/>
+      <c r="P12" s="86"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="90"/>
+      <c r="B13" s="82"/>
       <c r="C13" s="13">
         <v>11200800</v>
       </c>
@@ -10899,7 +10906,9 @@
       <c r="F13" s="13">
         <v>11060400</v>
       </c>
-      <c r="G13" s="13"/>
+      <c r="G13" s="13">
+        <v>10995300</v>
+      </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
@@ -10910,14 +10919,14 @@
       <c r="O13" s="13"/>
       <c r="P13" s="22">
         <f t="shared" ref="P13:P14" si="0">SUM(C13:O13)</f>
-        <v>44466600</v>
+        <v>55461900</v>
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="90"/>
+      <c r="B14" s="82"/>
       <c r="C14" s="13">
         <v>6839700</v>
       </c>
@@ -10930,7 +10939,9 @@
       <c r="F14" s="13">
         <v>6779700</v>
       </c>
-      <c r="G14" s="13"/>
+      <c r="G14" s="13">
+        <v>6775200</v>
+      </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
@@ -10941,14 +10952,14 @@
       <c r="O14" s="13"/>
       <c r="P14" s="22">
         <f t="shared" si="0"/>
-        <v>27207000</v>
+        <v>33982200</v>
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="90"/>
+      <c r="B15" s="82"/>
       <c r="C15" s="20">
         <f t="shared" ref="C15:P15" si="1">SUM(C13:C14)</f>
         <v>18040500</v>
@@ -10967,7 +10978,7 @@
       </c>
       <c r="G15" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17770500</v>
       </c>
       <c r="H15" s="20">
         <f t="shared" si="1"/>
@@ -11003,7 +11014,7 @@
       </c>
       <c r="P15" s="22">
         <f t="shared" si="1"/>
-        <v>71673600</v>
+        <v>89444100</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -11093,8 +11104,8 @@
       <c r="L20" s="79"/>
       <c r="M20" s="79"/>
       <c r="N20" s="79"/>
-      <c r="O20" s="83"/>
-      <c r="P20" s="84" t="s">
+      <c r="O20" s="84"/>
+      <c r="P20" s="85" t="s">
         <v>19</v>
       </c>
     </row>
@@ -11144,7 +11155,7 @@
       <c r="O21" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="P21" s="85"/>
+      <c r="P21" s="86"/>
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A22" s="10" t="s">
@@ -11165,7 +11176,9 @@
       <c r="F22" s="62">
         <v>6094200</v>
       </c>
-      <c r="G22" s="25"/>
+      <c r="G22" s="25">
+        <v>6054300</v>
+      </c>
       <c r="H22" s="25"/>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
@@ -11176,7 +11189,7 @@
       <c r="O22" s="25"/>
       <c r="P22" s="26">
         <f t="shared" ref="P22:P27" si="2">SUM(C22:O22)</f>
-        <v>24573000</v>
+        <v>30627300</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
@@ -11196,7 +11209,9 @@
       <c r="F23" s="63">
         <v>4966200</v>
       </c>
-      <c r="G23" s="25"/>
+      <c r="G23" s="25">
+        <v>4941000</v>
+      </c>
       <c r="H23" s="25"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
@@ -11207,7 +11222,7 @@
       <c r="O23" s="25"/>
       <c r="P23" s="26">
         <f t="shared" si="2"/>
-        <v>19893600</v>
+        <v>24834600</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1">
@@ -11233,7 +11248,7 @@
       </c>
       <c r="G24" s="27">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10995300</v>
       </c>
       <c r="H24" s="27">
         <f t="shared" si="4"/>
@@ -11269,7 +11284,7 @@
       </c>
       <c r="P24" s="26">
         <f t="shared" si="2"/>
-        <v>44466600</v>
+        <v>55461900</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" customHeight="1">
@@ -11291,7 +11306,9 @@
       <c r="F25" s="25">
         <v>120600</v>
       </c>
-      <c r="G25" s="25"/>
+      <c r="G25" s="25">
+        <v>120600</v>
+      </c>
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
@@ -11302,7 +11319,7 @@
       <c r="O25" s="25"/>
       <c r="P25" s="26">
         <f t="shared" si="2"/>
-        <v>486000</v>
+        <v>606600</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15.75" customHeight="1">
@@ -11322,7 +11339,9 @@
       <c r="F26" s="25">
         <v>6659100</v>
       </c>
-      <c r="G26" s="25"/>
+      <c r="G26" s="25">
+        <v>6654600</v>
+      </c>
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
@@ -11333,7 +11352,7 @@
       <c r="O26" s="25"/>
       <c r="P26" s="26">
         <f t="shared" si="2"/>
-        <v>26721000</v>
+        <v>33375600</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1">
@@ -11359,7 +11378,7 @@
       </c>
       <c r="G27" s="27">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6775200</v>
       </c>
       <c r="H27" s="27">
         <f t="shared" si="6"/>
@@ -11395,11 +11414,11 @@
       </c>
       <c r="P27" s="26">
         <f t="shared" si="2"/>
-        <v>27207000</v>
+        <v>33982200</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="83" t="s">
         <v>19</v>
       </c>
       <c r="B28" s="72"/>
@@ -11421,7 +11440,7 @@
       </c>
       <c r="G28" s="20">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>17770500</v>
       </c>
       <c r="H28" s="20">
         <f t="shared" si="8"/>
@@ -11457,7 +11476,7 @@
       </c>
       <c r="P28" s="26">
         <f>SUM(P24,P27)</f>
-        <v>71673600</v>
+        <v>89444100</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1"/>
@@ -12518,16 +12537,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A18:P18"/>
-    <mergeCell ref="A19:P19"/>
-    <mergeCell ref="C20:O20"/>
-    <mergeCell ref="P20:P21"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A7:P7"/>
     <mergeCell ref="A9:P9"/>
@@ -12536,6 +12545,16 @@
     <mergeCell ref="C11:O11"/>
     <mergeCell ref="P11:P12"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A18:P18"/>
+    <mergeCell ref="A19:P19"/>
+    <mergeCell ref="C20:O20"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A27:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -12544,11 +12563,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:O1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:E15"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -12668,7 +12687,7 @@
       <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="86">
+      <c r="B12" s="89">
         <v>2024</v>
       </c>
       <c r="C12" s="91"/>
@@ -12748,7 +12767,9 @@
       <c r="E14" s="64">
         <v>16203300</v>
       </c>
-      <c r="F14" s="13"/>
+      <c r="F14" s="13">
+        <v>16137900</v>
+      </c>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
@@ -12759,7 +12780,7 @@
       <c r="N14" s="13"/>
       <c r="O14" s="30">
         <f t="shared" ref="O14:O15" si="0">SUM(B14:N14)</f>
-        <v>65093700</v>
+        <v>81231600</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" thickBot="1">
@@ -12778,7 +12799,9 @@
       <c r="E15" s="65">
         <v>1636800</v>
       </c>
-      <c r="F15" s="13"/>
+      <c r="F15" s="13">
+        <v>1632600</v>
+      </c>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
@@ -12789,7 +12812,7 @@
       <c r="N15" s="13"/>
       <c r="O15" s="30">
         <f t="shared" si="0"/>
-        <v>6579900</v>
+        <v>8212500</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -12814,7 +12837,7 @@
       </c>
       <c r="F16" s="32">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>17770500</v>
       </c>
       <c r="G16" s="32">
         <f t="shared" si="2"/>
@@ -12850,7 +12873,7 @@
       </c>
       <c r="O16" s="32">
         <f t="shared" si="2"/>
-        <v>71673600</v>
+        <v>89444100</v>
       </c>
     </row>
     <row r="18" spans="2:5">
@@ -13851,11 +13874,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:O1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -13976,7 +13999,7 @@
       <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="86">
+      <c r="B12" s="89">
         <v>2024</v>
       </c>
       <c r="C12" s="91"/>
@@ -14056,7 +14079,9 @@
       <c r="E14" s="67">
         <v>0</v>
       </c>
-      <c r="F14" s="12"/>
+      <c r="F14" s="67">
+        <v>0</v>
+      </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
@@ -14086,7 +14111,9 @@
       <c r="E15" s="67">
         <v>600</v>
       </c>
-      <c r="F15" s="12"/>
+      <c r="F15" s="12">
+        <v>600</v>
+      </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
@@ -14097,7 +14124,7 @@
       <c r="N15" s="12"/>
       <c r="O15" s="38">
         <f t="shared" si="0"/>
-        <v>2400</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -14116,7 +14143,9 @@
       <c r="E16" s="67">
         <v>0</v>
       </c>
-      <c r="F16" s="12"/>
+      <c r="F16" s="67">
+        <v>0</v>
+      </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
@@ -14146,7 +14175,9 @@
       <c r="E17" s="67">
         <v>4200</v>
       </c>
-      <c r="F17" s="12"/>
+      <c r="F17" s="12">
+        <v>3900</v>
+      </c>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
@@ -14157,7 +14188,7 @@
       <c r="N17" s="12"/>
       <c r="O17" s="38">
         <f t="shared" si="0"/>
-        <v>15900</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -14176,7 +14207,9 @@
       <c r="E18" s="67">
         <v>22800</v>
       </c>
-      <c r="F18" s="12"/>
+      <c r="F18" s="12">
+        <v>22800</v>
+      </c>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
@@ -14187,7 +14220,7 @@
       <c r="N18" s="12"/>
       <c r="O18" s="38">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>112800</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -14206,7 +14239,9 @@
       <c r="E19" s="67">
         <v>28500</v>
       </c>
-      <c r="F19" s="12"/>
+      <c r="F19" s="12">
+        <v>28500</v>
+      </c>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
@@ -14217,7 +14252,7 @@
       <c r="N19" s="12"/>
       <c r="O19" s="38">
         <f t="shared" si="0"/>
-        <v>115200</v>
+        <v>143700</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -14236,7 +14271,9 @@
       <c r="E20" s="67">
         <v>280800</v>
       </c>
-      <c r="F20" s="12"/>
+      <c r="F20" s="12">
+        <v>277500</v>
+      </c>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
@@ -14247,7 +14284,7 @@
       <c r="N20" s="12"/>
       <c r="O20" s="38">
         <f t="shared" si="0"/>
-        <v>1123500</v>
+        <v>1401000</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1">
@@ -14266,7 +14303,9 @@
       <c r="E21" s="67">
         <v>523200</v>
       </c>
-      <c r="F21" s="12"/>
+      <c r="F21" s="12">
+        <v>521400</v>
+      </c>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
@@ -14277,7 +14316,7 @@
       <c r="N21" s="12"/>
       <c r="O21" s="38">
         <f t="shared" si="0"/>
-        <v>2101500</v>
+        <v>2622900</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1">
@@ -14296,7 +14335,9 @@
       <c r="E22" s="67">
         <v>6752100</v>
       </c>
-      <c r="F22" s="12"/>
+      <c r="F22" s="12">
+        <v>6747900</v>
+      </c>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
@@ -14307,7 +14348,7 @@
       <c r="N22" s="12"/>
       <c r="O22" s="38">
         <f t="shared" si="0"/>
-        <v>27098700</v>
+        <v>33846600</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1">
@@ -14326,7 +14367,9 @@
       <c r="E23" s="67">
         <v>10227900</v>
       </c>
-      <c r="F23" s="12"/>
+      <c r="F23" s="12">
+        <v>10167900</v>
+      </c>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
@@ -14337,7 +14380,7 @@
       <c r="N23" s="12"/>
       <c r="O23" s="38">
         <f t="shared" si="0"/>
-        <v>41126400</v>
+        <v>51294300</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1">
@@ -14362,7 +14405,7 @@
       </c>
       <c r="F24" s="40">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17770500</v>
       </c>
       <c r="G24" s="40">
         <f t="shared" si="1"/>
@@ -14398,7 +14441,7 @@
       </c>
       <c r="O24" s="32">
         <f t="shared" si="1"/>
-        <v>71673600</v>
+        <v>89444100</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1"/>
@@ -15391,11 +15434,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:O1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="D31" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -15595,7 +15638,9 @@
       <c r="E14" s="59">
         <v>381900</v>
       </c>
-      <c r="F14" s="41"/>
+      <c r="F14" s="41">
+        <v>384300</v>
+      </c>
       <c r="G14" s="41"/>
       <c r="H14" s="41"/>
       <c r="I14" s="41"/>
@@ -15606,7 +15651,7 @@
       <c r="N14" s="41"/>
       <c r="O14" s="42">
         <f t="shared" ref="O14:O51" si="0">SUM(B14:N14)</f>
-        <v>1533900</v>
+        <v>1918200</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -15625,7 +15670,9 @@
       <c r="E15" s="59">
         <v>1500</v>
       </c>
-      <c r="F15" s="41"/>
+      <c r="F15" s="41">
+        <v>1800</v>
+      </c>
       <c r="G15" s="41"/>
       <c r="H15" s="41"/>
       <c r="I15" s="41"/>
@@ -15636,7 +15683,7 @@
       <c r="N15" s="41"/>
       <c r="O15" s="42">
         <f t="shared" si="0"/>
-        <v>5700</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -15655,7 +15702,9 @@
       <c r="E16" s="59">
         <v>96600</v>
       </c>
-      <c r="F16" s="41"/>
+      <c r="F16" s="41">
+        <v>90300</v>
+      </c>
       <c r="G16" s="41"/>
       <c r="H16" s="41"/>
       <c r="I16" s="41"/>
@@ -15666,7 +15715,7 @@
       <c r="N16" s="41"/>
       <c r="O16" s="42">
         <f t="shared" si="0"/>
-        <v>389100</v>
+        <v>479400</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -15685,7 +15734,9 @@
       <c r="E17" s="59">
         <v>25500</v>
       </c>
-      <c r="F17" s="41"/>
+      <c r="F17" s="41">
+        <v>25200</v>
+      </c>
       <c r="G17" s="41"/>
       <c r="H17" s="41"/>
       <c r="I17" s="41"/>
@@ -15696,7 +15747,7 @@
       <c r="N17" s="41"/>
       <c r="O17" s="42">
         <f t="shared" si="0"/>
-        <v>101100</v>
+        <v>126300</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -15715,7 +15766,9 @@
       <c r="E18" s="59">
         <v>57000</v>
       </c>
-      <c r="F18" s="41"/>
+      <c r="F18" s="41">
+        <v>57000</v>
+      </c>
       <c r="G18" s="41"/>
       <c r="H18" s="41"/>
       <c r="I18" s="41"/>
@@ -15726,7 +15779,7 @@
       <c r="N18" s="41"/>
       <c r="O18" s="42">
         <f t="shared" si="0"/>
-        <v>226500</v>
+        <v>283500</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -15745,7 +15798,9 @@
       <c r="E19" s="59">
         <v>24600</v>
       </c>
-      <c r="F19" s="41"/>
+      <c r="F19" s="41">
+        <v>24300</v>
+      </c>
       <c r="G19" s="41"/>
       <c r="H19" s="41"/>
       <c r="I19" s="41"/>
@@ -15756,7 +15811,7 @@
       <c r="N19" s="41"/>
       <c r="O19" s="42">
         <f t="shared" si="0"/>
-        <v>97800</v>
+        <v>122100</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -15775,7 +15830,9 @@
       <c r="E20" s="59">
         <v>70500</v>
       </c>
-      <c r="F20" s="41"/>
+      <c r="F20" s="41">
+        <v>70800</v>
+      </c>
       <c r="G20" s="41"/>
       <c r="H20" s="41"/>
       <c r="I20" s="41"/>
@@ -15786,7 +15843,7 @@
       <c r="N20" s="41"/>
       <c r="O20" s="42">
         <f t="shared" si="0"/>
-        <v>280800</v>
+        <v>351600</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1">
@@ -15805,7 +15862,9 @@
       <c r="E21" s="59">
         <v>212700</v>
       </c>
-      <c r="F21" s="41"/>
+      <c r="F21" s="41">
+        <v>212100</v>
+      </c>
       <c r="G21" s="41"/>
       <c r="H21" s="41"/>
       <c r="I21" s="41"/>
@@ -15816,7 +15875,7 @@
       <c r="N21" s="41"/>
       <c r="O21" s="42">
         <f t="shared" si="0"/>
-        <v>850800</v>
+        <v>1062900</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1">
@@ -15835,7 +15894,9 @@
       <c r="E22" s="59">
         <v>138600</v>
       </c>
-      <c r="F22" s="41"/>
+      <c r="F22" s="41">
+        <v>137700</v>
+      </c>
       <c r="G22" s="41"/>
       <c r="H22" s="41"/>
       <c r="I22" s="41"/>
@@ -15846,7 +15907,7 @@
       <c r="N22" s="41"/>
       <c r="O22" s="42">
         <f t="shared" si="0"/>
-        <v>558000</v>
+        <v>695700</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1">
@@ -15865,7 +15926,9 @@
       <c r="E23" s="59">
         <v>74100</v>
       </c>
-      <c r="F23" s="41"/>
+      <c r="F23" s="41">
+        <v>73800</v>
+      </c>
       <c r="G23" s="41"/>
       <c r="H23" s="41"/>
       <c r="I23" s="41"/>
@@ -15876,7 +15939,7 @@
       <c r="N23" s="41"/>
       <c r="O23" s="42">
         <f t="shared" si="0"/>
-        <v>291900</v>
+        <v>365700</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1">
@@ -15895,7 +15958,9 @@
       <c r="E24" s="59">
         <v>49500</v>
       </c>
-      <c r="F24" s="41"/>
+      <c r="F24" s="41">
+        <v>49200</v>
+      </c>
       <c r="G24" s="41"/>
       <c r="H24" s="41"/>
       <c r="I24" s="41"/>
@@ -15906,7 +15971,7 @@
       <c r="N24" s="41"/>
       <c r="O24" s="42">
         <f t="shared" si="0"/>
-        <v>197700</v>
+        <v>246900</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1">
@@ -15925,7 +15990,9 @@
       <c r="E25" s="59">
         <v>0</v>
       </c>
-      <c r="F25" s="41"/>
+      <c r="F25" s="59">
+        <v>0</v>
+      </c>
       <c r="G25" s="41"/>
       <c r="H25" s="41"/>
       <c r="I25" s="41"/>
@@ -15955,7 +16022,9 @@
       <c r="E26" s="59">
         <v>750300</v>
       </c>
-      <c r="F26" s="41"/>
+      <c r="F26" s="41">
+        <v>746700</v>
+      </c>
       <c r="G26" s="41"/>
       <c r="H26" s="41"/>
       <c r="I26" s="41"/>
@@ -15966,7 +16035,7 @@
       <c r="N26" s="41"/>
       <c r="O26" s="42">
         <f t="shared" si="0"/>
-        <v>3003000</v>
+        <v>3749700</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1">
@@ -15985,7 +16054,9 @@
       <c r="E27" s="59">
         <v>102300</v>
       </c>
-      <c r="F27" s="41"/>
+      <c r="F27" s="41">
+        <v>102900</v>
+      </c>
       <c r="G27" s="41"/>
       <c r="H27" s="41"/>
       <c r="I27" s="41"/>
@@ -15996,7 +16067,7 @@
       <c r="N27" s="41"/>
       <c r="O27" s="42">
         <f t="shared" si="0"/>
-        <v>415200</v>
+        <v>518100</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1">
@@ -16015,7 +16086,9 @@
       <c r="E28" s="59">
         <v>1835400</v>
       </c>
-      <c r="F28" s="41"/>
+      <c r="F28" s="41">
+        <v>1832100</v>
+      </c>
       <c r="G28" s="41"/>
       <c r="H28" s="41"/>
       <c r="I28" s="41"/>
@@ -16026,7 +16099,7 @@
       <c r="N28" s="41"/>
       <c r="O28" s="42">
         <f t="shared" si="0"/>
-        <v>7411200</v>
+        <v>9243300</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1">
@@ -16045,7 +16118,9 @@
       <c r="E29" s="59">
         <v>827700</v>
       </c>
-      <c r="F29" s="41"/>
+      <c r="F29" s="41">
+        <v>824400</v>
+      </c>
       <c r="G29" s="41"/>
       <c r="H29" s="41"/>
       <c r="I29" s="41"/>
@@ -16056,7 +16131,7 @@
       <c r="N29" s="41"/>
       <c r="O29" s="42">
         <f t="shared" si="0"/>
-        <v>3329400</v>
+        <v>4153800</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1">
@@ -16075,7 +16150,9 @@
       <c r="E30" s="59">
         <v>922200</v>
       </c>
-      <c r="F30" s="41"/>
+      <c r="F30" s="41">
+        <v>923400</v>
+      </c>
       <c r="G30" s="41"/>
       <c r="H30" s="41"/>
       <c r="I30" s="41"/>
@@ -16086,7 +16163,7 @@
       <c r="N30" s="41"/>
       <c r="O30" s="42">
         <f t="shared" si="0"/>
-        <v>3702300</v>
+        <v>4625700</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1">
@@ -16105,7 +16182,9 @@
       <c r="E31" s="59">
         <v>1136400</v>
       </c>
-      <c r="F31" s="41"/>
+      <c r="F31" s="41">
+        <v>1136400</v>
+      </c>
       <c r="G31" s="41"/>
       <c r="H31" s="41"/>
       <c r="I31" s="41"/>
@@ -16116,7 +16195,7 @@
       <c r="N31" s="41"/>
       <c r="O31" s="42">
         <f t="shared" si="0"/>
-        <v>4568100</v>
+        <v>5704500</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1">
@@ -16135,7 +16214,9 @@
       <c r="E32" s="59">
         <v>229800</v>
       </c>
-      <c r="F32" s="41"/>
+      <c r="F32" s="41">
+        <v>230100</v>
+      </c>
       <c r="G32" s="41"/>
       <c r="H32" s="41"/>
       <c r="I32" s="41"/>
@@ -16146,7 +16227,7 @@
       <c r="N32" s="41"/>
       <c r="O32" s="42">
         <f t="shared" si="0"/>
-        <v>922200</v>
+        <v>1152300</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1">
@@ -16165,7 +16246,9 @@
       <c r="E33" s="59">
         <v>724800</v>
       </c>
-      <c r="F33" s="41"/>
+      <c r="F33" s="41">
+        <v>720000</v>
+      </c>
       <c r="G33" s="41"/>
       <c r="H33" s="41"/>
       <c r="I33" s="41"/>
@@ -16176,7 +16259,7 @@
       <c r="N33" s="41"/>
       <c r="O33" s="42">
         <f t="shared" si="0"/>
-        <v>2914200</v>
+        <v>3634200</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1">
@@ -16195,7 +16278,9 @@
       <c r="E34" s="59">
         <v>536100</v>
       </c>
-      <c r="F34" s="41"/>
+      <c r="F34" s="41">
+        <v>535500</v>
+      </c>
       <c r="G34" s="41"/>
       <c r="H34" s="41"/>
       <c r="I34" s="41"/>
@@ -16206,7 +16291,7 @@
       <c r="N34" s="41"/>
       <c r="O34" s="42">
         <f t="shared" si="0"/>
-        <v>2160300</v>
+        <v>2695800</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1">
@@ -16225,7 +16310,9 @@
       <c r="E35" s="59">
         <v>3300</v>
       </c>
-      <c r="F35" s="41"/>
+      <c r="F35" s="41">
+        <v>3300</v>
+      </c>
       <c r="G35" s="41"/>
       <c r="H35" s="41"/>
       <c r="I35" s="41"/>
@@ -16236,7 +16323,7 @@
       <c r="N35" s="41"/>
       <c r="O35" s="42">
         <f t="shared" si="0"/>
-        <v>14100</v>
+        <v>17400</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1">
@@ -16255,7 +16342,9 @@
       <c r="E36" s="59">
         <v>1330800</v>
       </c>
-      <c r="F36" s="41"/>
+      <c r="F36" s="41">
+        <v>1320600</v>
+      </c>
       <c r="G36" s="41"/>
       <c r="H36" s="41"/>
       <c r="I36" s="41"/>
@@ -16266,7 +16355,7 @@
       <c r="N36" s="41"/>
       <c r="O36" s="42">
         <f t="shared" si="0"/>
-        <v>5345700</v>
+        <v>6666300</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15.75" customHeight="1">
@@ -16285,7 +16374,9 @@
       <c r="E37" s="59">
         <v>362400</v>
       </c>
-      <c r="F37" s="41"/>
+      <c r="F37" s="41">
+        <v>360600</v>
+      </c>
       <c r="G37" s="41"/>
       <c r="H37" s="41"/>
       <c r="I37" s="41"/>
@@ -16296,7 +16387,7 @@
       <c r="N37" s="41"/>
       <c r="O37" s="42">
         <f t="shared" si="0"/>
-        <v>1458900</v>
+        <v>1819500</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="15.75" customHeight="1">
@@ -16315,7 +16406,9 @@
       <c r="E38" s="59">
         <v>4518900</v>
       </c>
-      <c r="F38" s="41"/>
+      <c r="F38" s="41">
+        <v>4496400</v>
+      </c>
       <c r="G38" s="41"/>
       <c r="H38" s="41"/>
       <c r="I38" s="41"/>
@@ -16326,7 +16419,7 @@
       <c r="N38" s="41"/>
       <c r="O38" s="42">
         <f t="shared" si="0"/>
-        <v>18123300</v>
+        <v>22619700</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="15.75" customHeight="1">
@@ -16345,7 +16438,9 @@
       <c r="E39" s="59">
         <v>232500</v>
       </c>
-      <c r="F39" s="41"/>
+      <c r="F39" s="41">
+        <v>231300</v>
+      </c>
       <c r="G39" s="41"/>
       <c r="H39" s="41"/>
       <c r="I39" s="41"/>
@@ -16356,7 +16451,7 @@
       <c r="N39" s="41"/>
       <c r="O39" s="42">
         <f t="shared" si="0"/>
-        <v>936300</v>
+        <v>1167600</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="15.75" customHeight="1">
@@ -16375,7 +16470,9 @@
       <c r="E40" s="59">
         <v>143100</v>
       </c>
-      <c r="F40" s="41"/>
+      <c r="F40" s="41">
+        <v>143400</v>
+      </c>
       <c r="G40" s="41"/>
       <c r="H40" s="41"/>
       <c r="I40" s="41"/>
@@ -16386,7 +16483,7 @@
       <c r="N40" s="41"/>
       <c r="O40" s="42">
         <f t="shared" si="0"/>
-        <v>573000</v>
+        <v>716400</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="15.75" customHeight="1">
@@ -16405,7 +16502,9 @@
       <c r="E41" s="59">
         <v>651600</v>
       </c>
-      <c r="F41" s="41"/>
+      <c r="F41" s="41">
+        <v>648000</v>
+      </c>
       <c r="G41" s="41"/>
       <c r="H41" s="41"/>
       <c r="I41" s="41"/>
@@ -16416,7 +16515,7 @@
       <c r="N41" s="41"/>
       <c r="O41" s="42">
         <f t="shared" si="0"/>
-        <v>2613600</v>
+        <v>3261600</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1">
@@ -16435,7 +16534,9 @@
       <c r="E42" s="59">
         <v>498300</v>
       </c>
-      <c r="F42" s="41"/>
+      <c r="F42" s="41">
+        <v>492600</v>
+      </c>
       <c r="G42" s="41"/>
       <c r="H42" s="41"/>
       <c r="I42" s="41"/>
@@ -16446,7 +16547,7 @@
       <c r="N42" s="41"/>
       <c r="O42" s="42">
         <f t="shared" si="0"/>
-        <v>1995900</v>
+        <v>2488500</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="1">
@@ -16465,7 +16566,9 @@
       <c r="E43" s="59">
         <v>50700</v>
       </c>
-      <c r="F43" s="41"/>
+      <c r="F43" s="41">
+        <v>51000</v>
+      </c>
       <c r="G43" s="41"/>
       <c r="H43" s="41"/>
       <c r="I43" s="41"/>
@@ -16476,7 +16579,7 @@
       <c r="N43" s="41"/>
       <c r="O43" s="42">
         <f t="shared" si="0"/>
-        <v>203700</v>
+        <v>254700</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1">
@@ -16495,7 +16598,9 @@
       <c r="E44" s="59">
         <v>623700</v>
       </c>
-      <c r="F44" s="41"/>
+      <c r="F44" s="41">
+        <v>619800</v>
+      </c>
       <c r="G44" s="41"/>
       <c r="H44" s="41"/>
       <c r="I44" s="41"/>
@@ -16506,7 +16611,7 @@
       <c r="N44" s="41"/>
       <c r="O44" s="42">
         <f t="shared" si="0"/>
-        <v>2514000</v>
+        <v>3133800</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="15.75" customHeight="1">
@@ -16525,7 +16630,9 @@
       <c r="E45" s="59">
         <v>164400</v>
       </c>
-      <c r="F45" s="41"/>
+      <c r="F45" s="41">
+        <v>164100</v>
+      </c>
       <c r="G45" s="41"/>
       <c r="H45" s="41"/>
       <c r="I45" s="41"/>
@@ -16536,7 +16643,7 @@
       <c r="N45" s="41"/>
       <c r="O45" s="42">
         <f t="shared" si="0"/>
-        <v>663000</v>
+        <v>827100</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="15.75" customHeight="1">
@@ -16555,7 +16662,9 @@
       <c r="E46" s="59">
         <v>351000</v>
       </c>
-      <c r="F46" s="41"/>
+      <c r="F46" s="41">
+        <v>348600</v>
+      </c>
       <c r="G46" s="41"/>
       <c r="H46" s="41"/>
       <c r="I46" s="41"/>
@@ -16566,7 +16675,7 @@
       <c r="N46" s="41"/>
       <c r="O46" s="42">
         <f t="shared" si="0"/>
-        <v>1407600</v>
+        <v>1756200</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="15.75" customHeight="1">
@@ -16585,7 +16694,9 @@
       <c r="E47" s="59">
         <v>69600</v>
       </c>
-      <c r="F47" s="41"/>
+      <c r="F47" s="41">
+        <v>70500</v>
+      </c>
       <c r="G47" s="41"/>
       <c r="H47" s="41"/>
       <c r="I47" s="41"/>
@@ -16596,7 +16707,7 @@
       <c r="N47" s="41"/>
       <c r="O47" s="42">
         <f t="shared" si="0"/>
-        <v>280200</v>
+        <v>350700</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="15.75" customHeight="1">
@@ -16615,7 +16726,9 @@
       <c r="E48" s="59">
         <v>358800</v>
       </c>
-      <c r="F48" s="41"/>
+      <c r="F48" s="41">
+        <v>358500</v>
+      </c>
       <c r="G48" s="41"/>
       <c r="H48" s="41"/>
       <c r="I48" s="41"/>
@@ -16626,7 +16739,7 @@
       <c r="N48" s="41"/>
       <c r="O48" s="42">
         <f t="shared" si="0"/>
-        <v>1452300</v>
+        <v>1810800</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="15.75" customHeight="1">
@@ -16645,7 +16758,9 @@
       <c r="E49" s="59">
         <v>57600</v>
       </c>
-      <c r="F49" s="41"/>
+      <c r="F49" s="41">
+        <v>57300</v>
+      </c>
       <c r="G49" s="41"/>
       <c r="H49" s="41"/>
       <c r="I49" s="41"/>
@@ -16656,7 +16771,7 @@
       <c r="N49" s="41"/>
       <c r="O49" s="42">
         <f t="shared" si="0"/>
-        <v>229800</v>
+        <v>287100</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="15.75" customHeight="1">
@@ -16675,7 +16790,9 @@
       <c r="E50" s="59">
         <v>85500</v>
       </c>
-      <c r="F50" s="41"/>
+      <c r="F50" s="41">
+        <v>86100</v>
+      </c>
       <c r="G50" s="41"/>
       <c r="H50" s="41"/>
       <c r="I50" s="41"/>
@@ -16686,7 +16803,7 @@
       <c r="N50" s="41"/>
       <c r="O50" s="42">
         <f t="shared" si="0"/>
-        <v>344100</v>
+        <v>430200</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" customHeight="1">
@@ -16705,7 +16822,9 @@
       <c r="E51" s="59">
         <v>140400</v>
       </c>
-      <c r="F51" s="41"/>
+      <c r="F51" s="41">
+        <v>140400</v>
+      </c>
       <c r="G51" s="41"/>
       <c r="H51" s="41"/>
       <c r="I51" s="41"/>
@@ -16716,7 +16835,7 @@
       <c r="N51" s="41"/>
       <c r="O51" s="42">
         <f t="shared" si="0"/>
-        <v>558900</v>
+        <v>699300</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="15.75" customHeight="1">
@@ -16741,7 +16860,7 @@
       </c>
       <c r="F52" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17770500</v>
       </c>
       <c r="G52" s="20">
         <f t="shared" si="1"/>
@@ -16777,7 +16896,7 @@
       </c>
       <c r="O52" s="43">
         <f t="shared" si="1"/>
-        <v>71673600</v>
+        <v>89444100</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="15.75" customHeight="1"/>
@@ -17742,11 +17861,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:P1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView topLeftCell="E40" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -17918,7 +18037,9 @@
       <c r="F13" s="68">
         <v>5649900</v>
       </c>
-      <c r="G13" s="45"/>
+      <c r="G13" s="45">
+        <v>5643300</v>
+      </c>
       <c r="H13" s="45"/>
       <c r="I13" s="45"/>
       <c r="J13" s="45"/>
@@ -17929,7 +18050,7 @@
       <c r="O13" s="45"/>
       <c r="P13" s="20">
         <f t="shared" ref="P13:P62" si="0">SUM(C13:O13)</f>
-        <v>22702200</v>
+        <v>28345500</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -17949,7 +18070,9 @@
       <c r="F14" s="68">
         <v>300</v>
       </c>
-      <c r="G14" s="45"/>
+      <c r="G14" s="45">
+        <v>300</v>
+      </c>
       <c r="H14" s="45"/>
       <c r="I14" s="45"/>
       <c r="J14" s="45"/>
@@ -17960,7 +18083,7 @@
       <c r="O14" s="45"/>
       <c r="P14" s="20">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -17980,7 +18103,9 @@
       <c r="F15" s="68">
         <v>81000</v>
       </c>
-      <c r="G15" s="45"/>
+      <c r="G15" s="45">
+        <v>80100</v>
+      </c>
       <c r="H15" s="45"/>
       <c r="I15" s="45"/>
       <c r="J15" s="45"/>
@@ -17991,7 +18116,7 @@
       <c r="O15" s="45"/>
       <c r="P15" s="20">
         <f t="shared" si="0"/>
-        <v>327600</v>
+        <v>407700</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -18011,7 +18136,9 @@
       <c r="F16" s="68">
         <v>15900</v>
       </c>
-      <c r="G16" s="45"/>
+      <c r="G16" s="45">
+        <v>15300</v>
+      </c>
       <c r="H16" s="45"/>
       <c r="I16" s="45"/>
       <c r="J16" s="45"/>
@@ -18022,7 +18149,7 @@
       <c r="O16" s="45"/>
       <c r="P16" s="20">
         <f t="shared" si="0"/>
-        <v>67200</v>
+        <v>82500</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -18044,7 +18171,9 @@
       <c r="F17" s="68">
         <v>4014000</v>
       </c>
-      <c r="G17" s="45"/>
+      <c r="G17" s="45">
+        <v>3988500</v>
+      </c>
       <c r="H17" s="45"/>
       <c r="I17" s="45"/>
       <c r="J17" s="45"/>
@@ -18055,7 +18184,7 @@
       <c r="O17" s="45"/>
       <c r="P17" s="20">
         <f t="shared" si="0"/>
-        <v>16097700</v>
+        <v>20086200</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -18075,7 +18204,9 @@
       <c r="F18" s="68">
         <v>184500</v>
       </c>
-      <c r="G18" s="45"/>
+      <c r="G18" s="45">
+        <v>182700</v>
+      </c>
       <c r="H18" s="45"/>
       <c r="I18" s="45"/>
       <c r="J18" s="45"/>
@@ -18086,7 +18217,7 @@
       <c r="O18" s="45"/>
       <c r="P18" s="20">
         <f t="shared" si="0"/>
-        <v>745200</v>
+        <v>927900</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -18106,7 +18237,9 @@
       <c r="F19" s="68">
         <v>19500</v>
       </c>
-      <c r="G19" s="45"/>
+      <c r="G19" s="45">
+        <v>19200</v>
+      </c>
       <c r="H19" s="45"/>
       <c r="I19" s="45"/>
       <c r="J19" s="45"/>
@@ -18117,7 +18250,7 @@
       <c r="O19" s="45"/>
       <c r="P19" s="20">
         <f t="shared" si="0"/>
-        <v>78000</v>
+        <v>97200</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -18137,7 +18270,9 @@
       <c r="F20" s="68">
         <v>8400</v>
       </c>
-      <c r="G20" s="45"/>
+      <c r="G20" s="45">
+        <v>8400</v>
+      </c>
       <c r="H20" s="45"/>
       <c r="I20" s="45"/>
       <c r="J20" s="45"/>
@@ -18148,7 +18283,7 @@
       <c r="O20" s="45"/>
       <c r="P20" s="20">
         <f t="shared" si="0"/>
-        <v>33000</v>
+        <v>41400</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1">
@@ -18170,7 +18305,9 @@
       <c r="F21" s="68">
         <v>2399700</v>
       </c>
-      <c r="G21" s="45"/>
+      <c r="G21" s="45">
+        <v>2384400</v>
+      </c>
       <c r="H21" s="45"/>
       <c r="I21" s="45"/>
       <c r="J21" s="45"/>
@@ -18181,7 +18318,7 @@
       <c r="O21" s="45"/>
       <c r="P21" s="20">
         <f t="shared" si="0"/>
-        <v>9623700</v>
+        <v>12008100</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1">
@@ -18201,7 +18338,9 @@
       <c r="F22" s="68">
         <v>127200</v>
       </c>
-      <c r="G22" s="45"/>
+      <c r="G22" s="45">
+        <v>126300</v>
+      </c>
       <c r="H22" s="45"/>
       <c r="I22" s="45"/>
       <c r="J22" s="45"/>
@@ -18212,7 +18351,7 @@
       <c r="O22" s="45"/>
       <c r="P22" s="20">
         <f t="shared" si="0"/>
-        <v>511800</v>
+        <v>638100</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1">
@@ -18232,7 +18371,9 @@
       <c r="F23" s="68">
         <v>27300</v>
       </c>
-      <c r="G23" s="45"/>
+      <c r="G23" s="45">
+        <v>26400</v>
+      </c>
       <c r="H23" s="45"/>
       <c r="I23" s="45"/>
       <c r="J23" s="45"/>
@@ -18243,7 +18384,7 @@
       <c r="O23" s="45"/>
       <c r="P23" s="20">
         <f t="shared" si="0"/>
-        <v>107400</v>
+        <v>133800</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1">
@@ -18263,7 +18404,9 @@
       <c r="F24" s="68">
         <v>25200</v>
       </c>
-      <c r="G24" s="45"/>
+      <c r="G24" s="45">
+        <v>25200</v>
+      </c>
       <c r="H24" s="45"/>
       <c r="I24" s="45"/>
       <c r="J24" s="45"/>
@@ -18274,7 +18417,7 @@
       <c r="O24" s="45"/>
       <c r="P24" s="20">
         <f t="shared" si="0"/>
-        <v>101400</v>
+        <v>126600</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" customHeight="1">
@@ -18294,7 +18437,9 @@
       <c r="F25" s="68">
         <v>36900</v>
       </c>
-      <c r="G25" s="45"/>
+      <c r="G25" s="45">
+        <v>36600</v>
+      </c>
       <c r="H25" s="45"/>
       <c r="I25" s="45"/>
       <c r="J25" s="45"/>
@@ -18305,7 +18450,7 @@
       <c r="O25" s="45"/>
       <c r="P25" s="20">
         <f t="shared" si="0"/>
-        <v>148500</v>
+        <v>185100</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15.75" customHeight="1">
@@ -18325,7 +18470,9 @@
       <c r="F26" s="68">
         <v>46800</v>
       </c>
-      <c r="G26" s="45"/>
+      <c r="G26" s="45">
+        <v>45900</v>
+      </c>
       <c r="H26" s="45"/>
       <c r="I26" s="45"/>
       <c r="J26" s="45"/>
@@ -18336,7 +18483,7 @@
       <c r="O26" s="45"/>
       <c r="P26" s="20">
         <f t="shared" si="0"/>
-        <v>189300</v>
+        <v>235200</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1">
@@ -18356,7 +18503,9 @@
       <c r="F27" s="68">
         <v>100800</v>
       </c>
-      <c r="G27" s="45"/>
+      <c r="G27" s="45">
+        <v>99900</v>
+      </c>
       <c r="H27" s="45"/>
       <c r="I27" s="45"/>
       <c r="J27" s="45"/>
@@ -18367,7 +18516,7 @@
       <c r="O27" s="45"/>
       <c r="P27" s="20">
         <f t="shared" si="0"/>
-        <v>405000</v>
+        <v>504900</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1">
@@ -18387,7 +18536,9 @@
       <c r="F28" s="68">
         <v>4500</v>
       </c>
-      <c r="G28" s="45"/>
+      <c r="G28" s="45">
+        <v>4200</v>
+      </c>
       <c r="H28" s="45"/>
       <c r="I28" s="45"/>
       <c r="J28" s="45"/>
@@ -18398,7 +18549,7 @@
       <c r="O28" s="45"/>
       <c r="P28" s="20">
         <f t="shared" si="0"/>
-        <v>18000</v>
+        <v>22200</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1">
@@ -18418,7 +18569,9 @@
       <c r="F29" s="68">
         <v>21600</v>
       </c>
-      <c r="G29" s="45"/>
+      <c r="G29" s="45">
+        <v>21900</v>
+      </c>
       <c r="H29" s="45"/>
       <c r="I29" s="45"/>
       <c r="J29" s="45"/>
@@ -18429,7 +18582,7 @@
       <c r="O29" s="45"/>
       <c r="P29" s="20">
         <f t="shared" si="0"/>
-        <v>87900</v>
+        <v>109800</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1">
@@ -18449,7 +18602,9 @@
       <c r="F30" s="68">
         <v>2700</v>
       </c>
-      <c r="G30" s="45"/>
+      <c r="G30" s="45">
+        <v>2700</v>
+      </c>
       <c r="H30" s="45"/>
       <c r="I30" s="45"/>
       <c r="J30" s="45"/>
@@ -18460,7 +18615,7 @@
       <c r="O30" s="45"/>
       <c r="P30" s="20">
         <f t="shared" si="0"/>
-        <v>10800</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="15.75" customHeight="1">
@@ -18480,7 +18635,9 @@
       <c r="F31" s="68">
         <v>4200</v>
       </c>
-      <c r="G31" s="45"/>
+      <c r="G31" s="45">
+        <v>4200</v>
+      </c>
       <c r="H31" s="45"/>
       <c r="I31" s="45"/>
       <c r="J31" s="45"/>
@@ -18491,7 +18648,7 @@
       <c r="O31" s="45"/>
       <c r="P31" s="20">
         <f t="shared" si="0"/>
-        <v>16800</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1">
@@ -18511,7 +18668,9 @@
       <c r="F32" s="68">
         <v>16200</v>
       </c>
-      <c r="G32" s="45"/>
+      <c r="G32" s="45">
+        <v>15900</v>
+      </c>
       <c r="H32" s="45"/>
       <c r="I32" s="45"/>
       <c r="J32" s="45"/>
@@ -18522,7 +18681,7 @@
       <c r="O32" s="45"/>
       <c r="P32" s="20">
         <f t="shared" si="0"/>
-        <v>65100</v>
+        <v>81000</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="15.75" customHeight="1">
@@ -18542,7 +18701,9 @@
       <c r="F33" s="68">
         <v>0</v>
       </c>
-      <c r="G33" s="45"/>
+      <c r="G33" s="68">
+        <v>0</v>
+      </c>
       <c r="H33" s="45"/>
       <c r="I33" s="45"/>
       <c r="J33" s="45"/>
@@ -18575,7 +18736,9 @@
       <c r="F34" s="68">
         <v>1414200</v>
       </c>
-      <c r="G34" s="45"/>
+      <c r="G34" s="45">
+        <v>1409700</v>
+      </c>
       <c r="H34" s="45"/>
       <c r="I34" s="45"/>
       <c r="J34" s="45"/>
@@ -18586,7 +18749,7 @@
       <c r="O34" s="45"/>
       <c r="P34" s="20">
         <f t="shared" si="0"/>
-        <v>5690100</v>
+        <v>7099800</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="15.75" customHeight="1">
@@ -18606,7 +18769,9 @@
       <c r="F35" s="68">
         <v>21600</v>
       </c>
-      <c r="G35" s="45"/>
+      <c r="G35" s="45">
+        <v>21600</v>
+      </c>
       <c r="H35" s="45"/>
       <c r="I35" s="45"/>
       <c r="J35" s="45"/>
@@ -18617,7 +18782,7 @@
       <c r="O35" s="45"/>
       <c r="P35" s="20">
         <f t="shared" si="0"/>
-        <v>87000</v>
+        <v>108600</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="15.75" customHeight="1">
@@ -18637,7 +18802,9 @@
       <c r="F36" s="68">
         <v>1200</v>
       </c>
-      <c r="G36" s="45"/>
+      <c r="G36" s="45">
+        <v>1200</v>
+      </c>
       <c r="H36" s="45"/>
       <c r="I36" s="45"/>
       <c r="J36" s="45"/>
@@ -18648,7 +18815,7 @@
       <c r="O36" s="45"/>
       <c r="P36" s="20">
         <f t="shared" si="0"/>
-        <v>4800</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="15.75" customHeight="1">
@@ -18668,7 +18835,9 @@
       <c r="F37" s="68">
         <v>169800</v>
       </c>
-      <c r="G37" s="45"/>
+      <c r="G37" s="45">
+        <v>168900</v>
+      </c>
       <c r="H37" s="45"/>
       <c r="I37" s="45"/>
       <c r="J37" s="45"/>
@@ -18679,7 +18848,7 @@
       <c r="O37" s="45"/>
       <c r="P37" s="20">
         <f t="shared" si="0"/>
-        <v>687000</v>
+        <v>855900</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="15.75" customHeight="1">
@@ -18699,7 +18868,9 @@
       <c r="F38" s="68">
         <v>40800</v>
       </c>
-      <c r="G38" s="45"/>
+      <c r="G38" s="45">
+        <v>40500</v>
+      </c>
       <c r="H38" s="45"/>
       <c r="I38" s="45"/>
       <c r="J38" s="45"/>
@@ -18710,7 +18881,7 @@
       <c r="O38" s="45"/>
       <c r="P38" s="20">
         <f t="shared" si="0"/>
-        <v>165600</v>
+        <v>206100</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="15.75" customHeight="1">
@@ -18730,7 +18901,9 @@
       <c r="F39" s="68">
         <v>0</v>
       </c>
-      <c r="G39" s="45"/>
+      <c r="G39" s="68">
+        <v>0</v>
+      </c>
       <c r="H39" s="45"/>
       <c r="I39" s="45"/>
       <c r="J39" s="45"/>
@@ -18763,7 +18936,9 @@
       <c r="F40" s="68">
         <v>1007700</v>
       </c>
-      <c r="G40" s="45"/>
+      <c r="G40" s="45">
+        <v>1005900</v>
+      </c>
       <c r="H40" s="45"/>
       <c r="I40" s="45"/>
       <c r="J40" s="45"/>
@@ -18774,7 +18949,7 @@
       <c r="O40" s="45"/>
       <c r="P40" s="20">
         <f t="shared" si="0"/>
-        <v>4056900</v>
+        <v>5062800</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="15.75" customHeight="1">
@@ -18794,7 +18969,9 @@
       <c r="F41" s="68">
         <v>41700</v>
       </c>
-      <c r="G41" s="45"/>
+      <c r="G41" s="45">
+        <v>41700</v>
+      </c>
       <c r="H41" s="45"/>
       <c r="I41" s="45"/>
       <c r="J41" s="45"/>
@@ -18805,7 +18982,7 @@
       <c r="O41" s="45"/>
       <c r="P41" s="20">
         <f t="shared" si="0"/>
-        <v>166500</v>
+        <v>208200</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="15.75" customHeight="1">
@@ -18825,7 +19002,9 @@
       <c r="F42" s="68">
         <v>6600</v>
       </c>
-      <c r="G42" s="45"/>
+      <c r="G42" s="45">
+        <v>6600</v>
+      </c>
       <c r="H42" s="45"/>
       <c r="I42" s="45"/>
       <c r="J42" s="45"/>
@@ -18836,7 +19015,7 @@
       <c r="O42" s="45"/>
       <c r="P42" s="20">
         <f t="shared" si="0"/>
-        <v>26400</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="15.75" customHeight="1">
@@ -18856,7 +19035,9 @@
       <c r="F43" s="68">
         <v>13500</v>
       </c>
-      <c r="G43" s="45"/>
+      <c r="G43" s="45">
+        <v>13200</v>
+      </c>
       <c r="H43" s="45"/>
       <c r="I43" s="45"/>
       <c r="J43" s="45"/>
@@ -18867,7 +19048,7 @@
       <c r="O43" s="45"/>
       <c r="P43" s="20">
         <f t="shared" si="0"/>
-        <v>54900</v>
+        <v>68100</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="15.75" customHeight="1">
@@ -18887,7 +19068,9 @@
       <c r="F44" s="68">
         <v>35400</v>
       </c>
-      <c r="G44" s="45"/>
+      <c r="G44" s="45">
+        <v>34500</v>
+      </c>
       <c r="H44" s="45"/>
       <c r="I44" s="45"/>
       <c r="J44" s="45"/>
@@ -18898,7 +19081,7 @@
       <c r="O44" s="45"/>
       <c r="P44" s="20">
         <f t="shared" si="0"/>
-        <v>142800</v>
+        <v>177300</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15.75" customHeight="1">
@@ -18918,7 +19101,9 @@
       <c r="F45" s="68">
         <v>239400</v>
       </c>
-      <c r="G45" s="45"/>
+      <c r="G45" s="45">
+        <v>237900</v>
+      </c>
       <c r="H45" s="45"/>
       <c r="I45" s="45"/>
       <c r="J45" s="45"/>
@@ -18929,7 +19114,7 @@
       <c r="O45" s="45"/>
       <c r="P45" s="20">
         <f t="shared" si="0"/>
-        <v>960900</v>
+        <v>1198800</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="15.75" customHeight="1">
@@ -18949,7 +19134,9 @@
       <c r="F46" s="68">
         <v>107400</v>
       </c>
-      <c r="G46" s="45"/>
+      <c r="G46" s="45">
+        <v>106800</v>
+      </c>
       <c r="H46" s="45"/>
       <c r="I46" s="45"/>
       <c r="J46" s="45"/>
@@ -18960,7 +19147,7 @@
       <c r="O46" s="45"/>
       <c r="P46" s="20">
         <f t="shared" si="0"/>
-        <v>432900</v>
+        <v>539700</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="15.75" customHeight="1">
@@ -18982,7 +19169,9 @@
       <c r="F47" s="68">
         <v>925500</v>
       </c>
-      <c r="G47" s="45"/>
+      <c r="G47" s="45">
+        <v>923700</v>
+      </c>
       <c r="H47" s="45"/>
       <c r="I47" s="45"/>
       <c r="J47" s="45"/>
@@ -18993,7 +19182,7 @@
       <c r="O47" s="45"/>
       <c r="P47" s="20">
         <f t="shared" si="0"/>
-        <v>3726900</v>
+        <v>4650600</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="15.75" customHeight="1">
@@ -19013,7 +19202,9 @@
       <c r="F48" s="68">
         <v>20700</v>
       </c>
-      <c r="G48" s="45"/>
+      <c r="G48" s="45">
+        <v>20700</v>
+      </c>
       <c r="H48" s="45"/>
       <c r="I48" s="45"/>
       <c r="J48" s="45"/>
@@ -19024,7 +19215,7 @@
       <c r="O48" s="45"/>
       <c r="P48" s="20">
         <f t="shared" si="0"/>
-        <v>83700</v>
+        <v>104400</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="15.75" customHeight="1">
@@ -19044,7 +19235,9 @@
       <c r="F49" s="68">
         <v>300</v>
       </c>
-      <c r="G49" s="45"/>
+      <c r="G49" s="45">
+        <v>300</v>
+      </c>
       <c r="H49" s="45"/>
       <c r="I49" s="45"/>
       <c r="J49" s="45"/>
@@ -19055,7 +19248,7 @@
       <c r="O49" s="45"/>
       <c r="P49" s="20">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="15.75" customHeight="1">
@@ -19077,7 +19270,9 @@
       <c r="F50" s="68">
         <v>601200</v>
       </c>
-      <c r="G50" s="45"/>
+      <c r="G50" s="45">
+        <v>602700</v>
+      </c>
       <c r="H50" s="45"/>
       <c r="I50" s="45"/>
       <c r="J50" s="45"/>
@@ -19088,7 +19283,7 @@
       <c r="O50" s="45"/>
       <c r="P50" s="20">
         <f t="shared" si="0"/>
-        <v>2415900</v>
+        <v>3018600</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="15.75" customHeight="1">
@@ -19108,7 +19303,9 @@
       <c r="F51" s="68">
         <v>22800</v>
       </c>
-      <c r="G51" s="45"/>
+      <c r="G51" s="45">
+        <v>22800</v>
+      </c>
       <c r="H51" s="45"/>
       <c r="I51" s="45"/>
       <c r="J51" s="45"/>
@@ -19119,7 +19316,7 @@
       <c r="O51" s="45"/>
       <c r="P51" s="20">
         <f t="shared" si="0"/>
-        <v>92400</v>
+        <v>115200</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="15.75" customHeight="1">
@@ -19139,7 +19336,9 @@
       <c r="F52" s="68">
         <v>72900</v>
       </c>
-      <c r="G52" s="45"/>
+      <c r="G52" s="45">
+        <v>72000</v>
+      </c>
       <c r="H52" s="45"/>
       <c r="I52" s="45"/>
       <c r="J52" s="45"/>
@@ -19150,7 +19349,7 @@
       <c r="O52" s="45"/>
       <c r="P52" s="20">
         <f t="shared" si="0"/>
-        <v>295500</v>
+        <v>367500</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="15.75" customHeight="1">
@@ -19170,7 +19369,9 @@
       <c r="F53" s="68">
         <v>45600</v>
       </c>
-      <c r="G53" s="45"/>
+      <c r="G53" s="45">
+        <v>44700</v>
+      </c>
       <c r="H53" s="45"/>
       <c r="I53" s="45"/>
       <c r="J53" s="45"/>
@@ -19181,7 +19382,7 @@
       <c r="O53" s="45"/>
       <c r="P53" s="20">
         <f t="shared" si="0"/>
-        <v>183600</v>
+        <v>228300</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="15.75" customHeight="1">
@@ -19201,7 +19402,9 @@
       <c r="F54" s="68">
         <v>1800</v>
       </c>
-      <c r="G54" s="45"/>
+      <c r="G54" s="45">
+        <v>1800</v>
+      </c>
       <c r="H54" s="45"/>
       <c r="I54" s="45"/>
       <c r="J54" s="45"/>
@@ -19212,7 +19415,7 @@
       <c r="O54" s="45"/>
       <c r="P54" s="20">
         <f t="shared" si="0"/>
-        <v>7200</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="15.75" customHeight="1">
@@ -19234,7 +19437,9 @@
       <c r="F55" s="68">
         <v>135300</v>
       </c>
-      <c r="G55" s="45"/>
+      <c r="G55" s="45">
+        <v>134700</v>
+      </c>
       <c r="H55" s="45"/>
       <c r="I55" s="45"/>
       <c r="J55" s="45"/>
@@ -19245,7 +19450,7 @@
       <c r="O55" s="45"/>
       <c r="P55" s="20">
         <f t="shared" si="0"/>
-        <v>540000</v>
+        <v>674700</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="15.75" customHeight="1">
@@ -19265,7 +19470,9 @@
       <c r="F56" s="68">
         <v>45300</v>
       </c>
-      <c r="G56" s="45"/>
+      <c r="G56" s="45">
+        <v>45000</v>
+      </c>
       <c r="H56" s="45"/>
       <c r="I56" s="45"/>
       <c r="J56" s="45"/>
@@ -19276,7 +19483,7 @@
       <c r="O56" s="45"/>
       <c r="P56" s="20">
         <f t="shared" si="0"/>
-        <v>183000</v>
+        <v>228000</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="15.75" customHeight="1">
@@ -19296,7 +19503,9 @@
       <c r="F57" s="68">
         <v>13800</v>
       </c>
-      <c r="G57" s="45"/>
+      <c r="G57" s="45">
+        <v>13800</v>
+      </c>
       <c r="H57" s="45"/>
       <c r="I57" s="45"/>
       <c r="J57" s="45"/>
@@ -19307,7 +19516,7 @@
       <c r="O57" s="45"/>
       <c r="P57" s="20">
         <f t="shared" si="0"/>
-        <v>52800</v>
+        <v>66600</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="15.75" customHeight="1">
@@ -19327,7 +19536,9 @@
       <c r="F58" s="68">
         <v>9300</v>
       </c>
-      <c r="G58" s="45"/>
+      <c r="G58" s="45">
+        <v>9300</v>
+      </c>
       <c r="H58" s="45"/>
       <c r="I58" s="45"/>
       <c r="J58" s="45"/>
@@ -19338,7 +19549,7 @@
       <c r="O58" s="45"/>
       <c r="P58" s="20">
         <f t="shared" si="0"/>
-        <v>37500</v>
+        <v>46800</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="15.75" customHeight="1">
@@ -19358,7 +19569,9 @@
       <c r="F59" s="68">
         <v>9600</v>
       </c>
-      <c r="G59" s="45"/>
+      <c r="G59" s="45">
+        <v>9600</v>
+      </c>
       <c r="H59" s="45"/>
       <c r="I59" s="45"/>
       <c r="J59" s="45"/>
@@ -19369,7 +19582,7 @@
       <c r="O59" s="45"/>
       <c r="P59" s="20">
         <f t="shared" si="0"/>
-        <v>39300</v>
+        <v>48900</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="15.75" customHeight="1">
@@ -19389,7 +19602,9 @@
       <c r="F60" s="68">
         <v>5700</v>
       </c>
-      <c r="G60" s="45"/>
+      <c r="G60" s="45">
+        <v>5700</v>
+      </c>
       <c r="H60" s="45"/>
       <c r="I60" s="45"/>
       <c r="J60" s="45"/>
@@ -19400,7 +19615,7 @@
       <c r="O60" s="45"/>
       <c r="P60" s="20">
         <f t="shared" si="0"/>
-        <v>23400</v>
+        <v>29100</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="15.75" customHeight="1">
@@ -19420,7 +19635,9 @@
       <c r="F61" s="68">
         <v>2700</v>
       </c>
-      <c r="G61" s="45"/>
+      <c r="G61" s="45">
+        <v>2400</v>
+      </c>
       <c r="H61" s="45"/>
       <c r="I61" s="45"/>
       <c r="J61" s="45"/>
@@ -19431,7 +19648,7 @@
       <c r="O61" s="45"/>
       <c r="P61" s="20">
         <f t="shared" si="0"/>
-        <v>10800</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="62" spans="1:16" ht="15.75" customHeight="1">
@@ -19453,7 +19670,9 @@
       <c r="F62" s="68">
         <v>41700</v>
       </c>
-      <c r="G62" s="45"/>
+      <c r="G62" s="45">
+        <v>41400</v>
+      </c>
       <c r="H62" s="45"/>
       <c r="I62" s="45"/>
       <c r="J62" s="45"/>
@@ -19464,7 +19683,7 @@
       <c r="O62" s="45"/>
       <c r="P62" s="20">
         <f t="shared" si="0"/>
-        <v>166800</v>
+        <v>208200</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="15.75" customHeight="1">
@@ -19490,7 +19709,7 @@
       </c>
       <c r="G63" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17770500</v>
       </c>
       <c r="H63" s="20">
         <f t="shared" si="1"/>
@@ -19526,7 +19745,7 @@
       </c>
       <c r="P63" s="20">
         <f t="shared" si="1"/>
-        <v>71673600</v>
+        <v>89444100</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="15.75" customHeight="1">

--- a/_data/rd/temporal/Monto.xlsx
+++ b/_data/rd/temporal/Monto.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acueto\Desktop\MAYO\RD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TEMPORAL\4D4R\TRABAJO\dashboard\senasir\_data\rd\temporal\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B0978B-BFAE-4FB9-AB02-F80338A8BBBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RD" sheetId="7" r:id="rId1"/>
@@ -23,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RD!$A$1:$Q$109</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -521,10 +522,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;Bs&quot;* #,##0.00_-;\-&quot;Bs&quot;* #,##0.00_-;_-&quot;Bs&quot;* &quot;-&quot;??_-;_-@"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;Bs&quot;* #,##0.00_-;\-&quot;Bs&quot;* #,##0.00_-;_-&quot;Bs&quot;* &quot;-&quot;??_-;_-@"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -1323,10 +1324,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1355,23 +1356,23 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1380,19 +1381,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1407,20 +1408,20 @@
     <xf numFmtId="4" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1434,10 +1435,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="4" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1476,6 +1477,7 @@
     <xf numFmtId="1" fontId="10" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1532,7 +1534,7 @@
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1978,12 +1980,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B123" sqref="B123"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J86" sqref="J86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2083,7 +2085,7 @@
       </c>
       <c r="J2" s="51">
         <f>+'SR - Planilla Desagregado'!H13</f>
-        <v>0</v>
+        <v>10682100</v>
       </c>
       <c r="K2" s="51">
         <f>+'SR - Planilla Desagregado'!I13</f>
@@ -2149,7 +2151,7 @@
       </c>
       <c r="J3" s="51">
         <f>+'SR - Planilla Desagregado'!H14</f>
-        <v>0</v>
+        <v>6623700</v>
       </c>
       <c r="K3" s="51">
         <f>+'SR - Planilla Desagregado'!I14</f>
@@ -2215,7 +2217,7 @@
       </c>
       <c r="J4" s="51">
         <f>+'SR - Planilla Desagregado'!H16</f>
-        <v>0</v>
+        <v>252600</v>
       </c>
       <c r="K4" s="51">
         <f>+'SR - Planilla Desagregado'!I16</f>
@@ -2281,7 +2283,7 @@
       </c>
       <c r="J5" s="51">
         <f>+'SR - Planilla Desagregado'!H17</f>
-        <v>0</v>
+        <v>135000</v>
       </c>
       <c r="K5" s="51">
         <f>+'SR - Planilla Desagregado'!I17</f>
@@ -2347,7 +2349,7 @@
       </c>
       <c r="J6" s="51">
         <f>+'SR - Tit - DH'!H22</f>
-        <v>0</v>
+        <v>6016800</v>
       </c>
       <c r="K6" s="51">
         <f>+'SR - Tit - DH'!I22</f>
@@ -2413,7 +2415,7 @@
       </c>
       <c r="J7" s="51">
         <f>+'SR - Tit - DH'!H23</f>
-        <v>0</v>
+        <v>4917900</v>
       </c>
       <c r="K7" s="51">
         <f>+'SR - Tit - DH'!I23</f>
@@ -2479,7 +2481,7 @@
       </c>
       <c r="J8" s="51">
         <f>+'SR - Tit - DH'!H25</f>
-        <v>0</v>
+        <v>120300</v>
       </c>
       <c r="K8" s="51">
         <f>+'SR - Tit - DH'!I25</f>
@@ -2545,7 +2547,7 @@
       </c>
       <c r="J9" s="51">
         <f>+'SR - Tit - DH'!H26</f>
-        <v>0</v>
+        <v>6638400</v>
       </c>
       <c r="K9" s="51">
         <f>+'SR - Tit - DH'!I26</f>
@@ -2611,7 +2613,7 @@
       </c>
       <c r="J10" s="51">
         <f>+'SR - Tipo Renta'!G14</f>
-        <v>0</v>
+        <v>16064700</v>
       </c>
       <c r="K10" s="51">
         <f>+'SR - Tipo Renta'!H14</f>
@@ -2677,7 +2679,7 @@
       </c>
       <c r="J11" s="51">
         <f>+'SR - Tipo Renta'!G15</f>
-        <v>0</v>
+        <v>1628700</v>
       </c>
       <c r="K11" s="51">
         <f>+'SR - Tipo Renta'!H15</f>
@@ -2809,7 +2811,7 @@
       </c>
       <c r="J13" s="51">
         <f>+'SR - Clase Renta'!G15</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="K13" s="51">
         <f>+'SR - Clase Renta'!H15</f>
@@ -2941,7 +2943,7 @@
       </c>
       <c r="J15" s="51">
         <f>+'SR - Clase Renta'!G17</f>
-        <v>0</v>
+        <v>4200</v>
       </c>
       <c r="K15" s="51">
         <f>+'SR - Clase Renta'!H17</f>
@@ -3007,7 +3009,7 @@
       </c>
       <c r="J16" s="51">
         <f>+'SR - Clase Renta'!G18</f>
-        <v>0</v>
+        <v>22800</v>
       </c>
       <c r="K16" s="51">
         <f>+'SR - Clase Renta'!H18</f>
@@ -3073,7 +3075,7 @@
       </c>
       <c r="J17" s="51">
         <f>+'SR - Clase Renta'!G19</f>
-        <v>0</v>
+        <v>28500</v>
       </c>
       <c r="K17" s="51">
         <f>+'SR - Clase Renta'!H19</f>
@@ -3139,7 +3141,7 @@
       </c>
       <c r="J18" s="51">
         <f>+'SR - Clase Renta'!G20</f>
-        <v>0</v>
+        <v>276600</v>
       </c>
       <c r="K18" s="51">
         <f>+'SR - Clase Renta'!H20</f>
@@ -3205,7 +3207,7 @@
       </c>
       <c r="J19" s="51">
         <f>+'SR - Clase Renta'!G21</f>
-        <v>0</v>
+        <v>519600</v>
       </c>
       <c r="K19" s="51">
         <f>+'SR - Clase Renta'!H21</f>
@@ -3271,7 +3273,7 @@
       </c>
       <c r="J20" s="51">
         <f>+'SR - Clase Renta'!G22</f>
-        <v>0</v>
+        <v>6731100</v>
       </c>
       <c r="K20" s="51">
         <f>+'SR - Clase Renta'!H22</f>
@@ -3337,7 +3339,7 @@
       </c>
       <c r="J21" s="51">
         <f>+'SR - Clase Renta'!G23</f>
-        <v>0</v>
+        <v>10110000</v>
       </c>
       <c r="K21" s="51">
         <f>+'SR - Clase Renta'!H23</f>
@@ -3403,7 +3405,7 @@
       </c>
       <c r="J22" s="51">
         <f>+'SR - Sector'!G14</f>
-        <v>0</v>
+        <v>381900</v>
       </c>
       <c r="K22" s="51">
         <f>+'SR - Sector'!H14</f>
@@ -3469,7 +3471,7 @@
       </c>
       <c r="J23" s="51">
         <f>+'SR - Sector'!G15</f>
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="K23" s="51">
         <f>+'SR - Sector'!H15</f>
@@ -3535,7 +3537,7 @@
       </c>
       <c r="J24" s="51">
         <f>+'SR - Sector'!G16</f>
-        <v>0</v>
+        <v>90600</v>
       </c>
       <c r="K24" s="51">
         <f>+'SR - Sector'!H16</f>
@@ -3601,7 +3603,7 @@
       </c>
       <c r="J25" s="51">
         <f>+'SR - Sector'!G17</f>
-        <v>0</v>
+        <v>24300</v>
       </c>
       <c r="K25" s="51">
         <f>+'SR - Sector'!H17</f>
@@ -3667,7 +3669,7 @@
       </c>
       <c r="J26" s="51">
         <f>+'SR - Sector'!G18</f>
-        <v>0</v>
+        <v>57000</v>
       </c>
       <c r="K26" s="51">
         <f>+'SR - Sector'!H18</f>
@@ -3733,7 +3735,7 @@
       </c>
       <c r="J27" s="51">
         <f>+'SR - Sector'!G19</f>
-        <v>0</v>
+        <v>24600</v>
       </c>
       <c r="K27" s="51">
         <f>+'SR - Sector'!H19</f>
@@ -3799,7 +3801,7 @@
       </c>
       <c r="J28" s="51">
         <f>+'SR - Sector'!G20</f>
-        <v>0</v>
+        <v>71400</v>
       </c>
       <c r="K28" s="51">
         <f>+'SR - Sector'!H20</f>
@@ -3865,7 +3867,7 @@
       </c>
       <c r="J29" s="51">
         <f>+'SR - Sector'!G21</f>
-        <v>0</v>
+        <v>216300</v>
       </c>
       <c r="K29" s="51">
         <f>+'SR - Sector'!H21</f>
@@ -3931,7 +3933,7 @@
       </c>
       <c r="J30" s="51">
         <f>+'SR - Sector'!G22</f>
-        <v>0</v>
+        <v>137400</v>
       </c>
       <c r="K30" s="51">
         <f>+'SR - Sector'!H22</f>
@@ -3997,7 +3999,7 @@
       </c>
       <c r="J31" s="51">
         <f>+'SR - Sector'!G23</f>
-        <v>0</v>
+        <v>73800</v>
       </c>
       <c r="K31" s="51">
         <f>+'SR - Sector'!H23</f>
@@ -4063,7 +4065,7 @@
       </c>
       <c r="J32" s="51">
         <f>+'SR - Sector'!G24</f>
-        <v>0</v>
+        <v>49200</v>
       </c>
       <c r="K32" s="51">
         <f>+'SR - Sector'!H24</f>
@@ -4195,7 +4197,7 @@
       </c>
       <c r="J34" s="51">
         <f>+'SR - Sector'!G26</f>
-        <v>0</v>
+        <v>745500</v>
       </c>
       <c r="K34" s="51">
         <f>+'SR - Sector'!H26</f>
@@ -4261,7 +4263,7 @@
       </c>
       <c r="J35" s="51">
         <f>+'SR - Sector'!G27</f>
-        <v>0</v>
+        <v>102900</v>
       </c>
       <c r="K35" s="51">
         <f>+'SR - Sector'!H27</f>
@@ -4327,7 +4329,7 @@
       </c>
       <c r="J36" s="51">
         <f>+'SR - Sector'!G28</f>
-        <v>0</v>
+        <v>1824300</v>
       </c>
       <c r="K36" s="51">
         <f>+'SR - Sector'!H28</f>
@@ -4393,7 +4395,7 @@
       </c>
       <c r="J37" s="51">
         <f>+'SR - Sector'!G29</f>
-        <v>0</v>
+        <v>821700</v>
       </c>
       <c r="K37" s="51">
         <f>+'SR - Sector'!H29</f>
@@ -4459,7 +4461,7 @@
       </c>
       <c r="J38" s="51">
         <f>+'SR - Sector'!G30</f>
-        <v>0</v>
+        <v>918000</v>
       </c>
       <c r="K38" s="51">
         <f>+'SR - Sector'!H30</f>
@@ -4525,7 +4527,7 @@
       </c>
       <c r="J39" s="51">
         <f>+'SR - Sector'!G31</f>
-        <v>0</v>
+        <v>1130400</v>
       </c>
       <c r="K39" s="51">
         <f>+'SR - Sector'!H31</f>
@@ -4591,7 +4593,7 @@
       </c>
       <c r="J40" s="51">
         <f>+'SR - Sector'!G32</f>
-        <v>0</v>
+        <v>229500</v>
       </c>
       <c r="K40" s="51">
         <f>+'SR - Sector'!H32</f>
@@ -4657,7 +4659,7 @@
       </c>
       <c r="J41" s="51">
         <f>+'SR - Sector'!G33</f>
-        <v>0</v>
+        <v>713400</v>
       </c>
       <c r="K41" s="51">
         <f>+'SR - Sector'!H33</f>
@@ -4723,7 +4725,7 @@
       </c>
       <c r="J42" s="51">
         <f>+'SR - Sector'!G34</f>
-        <v>0</v>
+        <v>538200</v>
       </c>
       <c r="K42" s="51">
         <f>+'SR - Sector'!H34</f>
@@ -4789,7 +4791,7 @@
       </c>
       <c r="J43" s="51">
         <f>+'SR - Sector'!G35</f>
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="K43" s="51">
         <f>+'SR - Sector'!H35</f>
@@ -4855,7 +4857,7 @@
       </c>
       <c r="J44" s="51">
         <f>+'SR - Sector'!G36</f>
-        <v>0</v>
+        <v>1314600</v>
       </c>
       <c r="K44" s="51">
         <f>+'SR - Sector'!H36</f>
@@ -4921,7 +4923,7 @@
       </c>
       <c r="J45" s="51">
         <f>+'SR - Sector'!G37</f>
-        <v>0</v>
+        <v>359400</v>
       </c>
       <c r="K45" s="51">
         <f>+'SR - Sector'!H37</f>
@@ -4987,7 +4989,7 @@
       </c>
       <c r="J46" s="51">
         <f>+'SR - Sector'!G38</f>
-        <v>0</v>
+        <v>4470000</v>
       </c>
       <c r="K46" s="51">
         <f>+'SR - Sector'!H38</f>
@@ -5053,7 +5055,7 @@
       </c>
       <c r="J47" s="51">
         <f>+'SR - Sector'!G39</f>
-        <v>0</v>
+        <v>229800</v>
       </c>
       <c r="K47" s="51">
         <f>+'SR - Sector'!H39</f>
@@ -5119,7 +5121,7 @@
       </c>
       <c r="J48" s="51">
         <f>+'SR - Sector'!G40</f>
-        <v>0</v>
+        <v>142500</v>
       </c>
       <c r="K48" s="51">
         <f>+'SR - Sector'!H40</f>
@@ -5185,7 +5187,7 @@
       </c>
       <c r="J49" s="51">
         <f>+'SR - Sector'!G41</f>
-        <v>0</v>
+        <v>643800</v>
       </c>
       <c r="K49" s="51">
         <f>+'SR - Sector'!H41</f>
@@ -5251,7 +5253,7 @@
       </c>
       <c r="J50" s="51">
         <f>+'SR - Sector'!G42</f>
-        <v>0</v>
+        <v>493500</v>
       </c>
       <c r="K50" s="51">
         <f>+'SR - Sector'!H42</f>
@@ -5317,7 +5319,7 @@
       </c>
       <c r="J51" s="51">
         <f>+'SR - Sector'!G43</f>
-        <v>0</v>
+        <v>50400</v>
       </c>
       <c r="K51" s="51">
         <f>+'SR - Sector'!H43</f>
@@ -5383,7 +5385,7 @@
       </c>
       <c r="J52" s="51">
         <f>+'SR - Sector'!G44</f>
-        <v>0</v>
+        <v>618600</v>
       </c>
       <c r="K52" s="51">
         <f>+'SR - Sector'!H44</f>
@@ -5449,7 +5451,7 @@
       </c>
       <c r="J53" s="51">
         <f>+'SR - Sector'!G45</f>
-        <v>0</v>
+        <v>163200</v>
       </c>
       <c r="K53" s="51">
         <f>+'SR - Sector'!H45</f>
@@ -5515,7 +5517,7 @@
       </c>
       <c r="J54" s="51">
         <f>+'SR - Sector'!G46</f>
-        <v>0</v>
+        <v>346500</v>
       </c>
       <c r="K54" s="51">
         <f>+'SR - Sector'!H46</f>
@@ -5581,7 +5583,7 @@
       </c>
       <c r="J55" s="51">
         <f>+'SR - Sector'!G47</f>
-        <v>0</v>
+        <v>69300</v>
       </c>
       <c r="K55" s="51">
         <f>+'SR - Sector'!H47</f>
@@ -5647,7 +5649,7 @@
       </c>
       <c r="J56" s="51">
         <f>+'SR - Sector'!G48</f>
-        <v>0</v>
+        <v>355800</v>
       </c>
       <c r="K56" s="51">
         <f>+'SR - Sector'!H48</f>
@@ -5713,7 +5715,7 @@
       </c>
       <c r="J57" s="51">
         <f>+'SR - Sector'!G49</f>
-        <v>0</v>
+        <v>57000</v>
       </c>
       <c r="K57" s="51">
         <f>+'SR - Sector'!H49</f>
@@ -5779,7 +5781,7 @@
       </c>
       <c r="J58" s="51">
         <f>+'SR - Sector'!G50</f>
-        <v>0</v>
+        <v>84300</v>
       </c>
       <c r="K58" s="51">
         <f>+'SR - Sector'!H50</f>
@@ -5845,7 +5847,7 @@
       </c>
       <c r="J59" s="51">
         <f>+'SR - Sector'!G51</f>
-        <v>0</v>
+        <v>139200</v>
       </c>
       <c r="K59" s="51">
         <f>+'SR - Sector'!H51</f>
@@ -5911,7 +5913,7 @@
       </c>
       <c r="J60" s="51">
         <f>+'SR - Regional'!H13</f>
-        <v>0</v>
+        <v>5619900</v>
       </c>
       <c r="K60" s="51">
         <f>+'SR - Regional'!I13</f>
@@ -5977,7 +5979,7 @@
       </c>
       <c r="J61" s="51">
         <f>+'SR - Regional'!H14</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K61" s="51">
         <f>+'SR - Regional'!I14</f>
@@ -6043,7 +6045,7 @@
       </c>
       <c r="J62" s="51">
         <f>+'SR - Regional'!H15</f>
-        <v>0</v>
+        <v>78000</v>
       </c>
       <c r="K62" s="51">
         <f>+'SR - Regional'!I15</f>
@@ -6109,7 +6111,7 @@
       </c>
       <c r="J63" s="51">
         <f>+'SR - Regional'!H16</f>
-        <v>0</v>
+        <v>15300</v>
       </c>
       <c r="K63" s="51">
         <f>+'SR - Regional'!I16</f>
@@ -6175,7 +6177,7 @@
       </c>
       <c r="J64" s="51">
         <f>+'SR - Regional'!H17</f>
-        <v>0</v>
+        <v>3970200</v>
       </c>
       <c r="K64" s="51">
         <f>+'SR - Regional'!I17</f>
@@ -6241,7 +6243,7 @@
       </c>
       <c r="J65" s="51">
         <f>+'SR - Regional'!H18</f>
-        <v>0</v>
+        <v>181200</v>
       </c>
       <c r="K65" s="51">
         <f>+'SR - Regional'!I18</f>
@@ -6307,7 +6309,7 @@
       </c>
       <c r="J66" s="51">
         <f>+'SR - Regional'!H19</f>
-        <v>0</v>
+        <v>19200</v>
       </c>
       <c r="K66" s="51">
         <f>+'SR - Regional'!I19</f>
@@ -6373,7 +6375,7 @@
       </c>
       <c r="J67" s="51">
         <f>+'SR - Regional'!H20</f>
-        <v>0</v>
+        <v>8400</v>
       </c>
       <c r="K67" s="51">
         <f>+'SR - Regional'!I20</f>
@@ -6439,7 +6441,7 @@
       </c>
       <c r="J68" s="51">
         <f>+'SR - Regional'!H21</f>
-        <v>0</v>
+        <v>2382600</v>
       </c>
       <c r="K68" s="51">
         <f>+'SR - Regional'!I21</f>
@@ -6505,7 +6507,7 @@
       </c>
       <c r="J69" s="51">
         <f>+'SR - Regional'!H22</f>
-        <v>0</v>
+        <v>126000</v>
       </c>
       <c r="K69" s="51">
         <f>+'SR - Regional'!I22</f>
@@ -6571,7 +6573,7 @@
       </c>
       <c r="J70" s="51">
         <f>+'SR - Regional'!H23</f>
-        <v>0</v>
+        <v>26100</v>
       </c>
       <c r="K70" s="51">
         <f>+'SR - Regional'!I23</f>
@@ -6637,7 +6639,7 @@
       </c>
       <c r="J71" s="51">
         <f>+'SR - Regional'!H24</f>
-        <v>0</v>
+        <v>24900</v>
       </c>
       <c r="K71" s="51">
         <f>+'SR - Regional'!I24</f>
@@ -6703,7 +6705,7 @@
       </c>
       <c r="J72" s="51">
         <f>+'SR - Regional'!H25</f>
-        <v>0</v>
+        <v>36300</v>
       </c>
       <c r="K72" s="51">
         <f>+'SR - Regional'!I25</f>
@@ -6769,7 +6771,7 @@
       </c>
       <c r="J73" s="51">
         <f>+'SR - Regional'!H26</f>
-        <v>0</v>
+        <v>45600</v>
       </c>
       <c r="K73" s="51">
         <f>+'SR - Regional'!I26</f>
@@ -6835,7 +6837,7 @@
       </c>
       <c r="J74" s="51">
         <f>+'SR - Regional'!H27</f>
-        <v>0</v>
+        <v>99000</v>
       </c>
       <c r="K74" s="51">
         <f>+'SR - Regional'!I27</f>
@@ -6901,7 +6903,7 @@
       </c>
       <c r="J75" s="51">
         <f>+'SR - Regional'!H28</f>
-        <v>0</v>
+        <v>4200</v>
       </c>
       <c r="K75" s="51">
         <f>+'SR - Regional'!I28</f>
@@ -6967,7 +6969,7 @@
       </c>
       <c r="J76" s="51">
         <f>+'SR - Regional'!H29</f>
-        <v>0</v>
+        <v>21900</v>
       </c>
       <c r="K76" s="51">
         <f>+'SR - Regional'!I29</f>
@@ -7033,7 +7035,7 @@
       </c>
       <c r="J77" s="51">
         <f>+'SR - Regional'!H30</f>
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="K77" s="51">
         <f>+'SR - Regional'!I30</f>
@@ -7099,7 +7101,7 @@
       </c>
       <c r="J78" s="51">
         <f>+'SR - Regional'!H31</f>
-        <v>0</v>
+        <v>4200</v>
       </c>
       <c r="K78" s="51">
         <f>+'SR - Regional'!I31</f>
@@ -7165,7 +7167,7 @@
       </c>
       <c r="J79" s="51">
         <f>+'SR - Regional'!H32</f>
-        <v>0</v>
+        <v>15900</v>
       </c>
       <c r="K79" s="51">
         <f>+'SR - Regional'!I32</f>
@@ -7297,7 +7299,7 @@
       </c>
       <c r="J81" s="51">
         <f>+'SR - Regional'!H34</f>
-        <v>0</v>
+        <v>1397400</v>
       </c>
       <c r="K81" s="51">
         <f>+'SR - Regional'!I34</f>
@@ -7363,7 +7365,7 @@
       </c>
       <c r="J82" s="51">
         <f>+'SR - Regional'!H35</f>
-        <v>0</v>
+        <v>21600</v>
       </c>
       <c r="K82" s="51">
         <f>+'SR - Regional'!I35</f>
@@ -7429,7 +7431,7 @@
       </c>
       <c r="J83" s="51">
         <f>+'SR - Regional'!H36</f>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="K83" s="51">
         <f>+'SR - Regional'!I36</f>
@@ -7495,7 +7497,7 @@
       </c>
       <c r="J84" s="51">
         <f>+'SR - Regional'!H37</f>
-        <v>0</v>
+        <v>168000</v>
       </c>
       <c r="K84" s="51">
         <f>+'SR - Regional'!I37</f>
@@ -7561,7 +7563,7 @@
       </c>
       <c r="J85" s="51">
         <f>+'SR - Regional'!H38</f>
-        <v>0</v>
+        <v>40200</v>
       </c>
       <c r="K85" s="51">
         <f>+'SR - Regional'!I38</f>
@@ -7693,7 +7695,7 @@
       </c>
       <c r="J87" s="51">
         <f>+'SR - Regional'!H40</f>
-        <v>0</v>
+        <v>1005900</v>
       </c>
       <c r="K87" s="51">
         <f>+'SR - Regional'!I40</f>
@@ -7759,7 +7761,7 @@
       </c>
       <c r="J88" s="51">
         <f>+'SR - Regional'!H41</f>
-        <v>0</v>
+        <v>42300</v>
       </c>
       <c r="K88" s="51">
         <f>+'SR - Regional'!I41</f>
@@ -7825,7 +7827,7 @@
       </c>
       <c r="J89" s="51">
         <f>+'SR - Regional'!H42</f>
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="K89" s="51">
         <f>+'SR - Regional'!I42</f>
@@ -7891,7 +7893,7 @@
       </c>
       <c r="J90" s="51">
         <f>+'SR - Regional'!H43</f>
-        <v>0</v>
+        <v>12900</v>
       </c>
       <c r="K90" s="51">
         <f>+'SR - Regional'!I43</f>
@@ -7957,7 +7959,7 @@
       </c>
       <c r="J91" s="51">
         <f>+'SR - Regional'!H44</f>
-        <v>0</v>
+        <v>34200</v>
       </c>
       <c r="K91" s="51">
         <f>+'SR - Regional'!I44</f>
@@ -8023,7 +8025,7 @@
       </c>
       <c r="J92" s="51">
         <f>+'SR - Regional'!H45</f>
-        <v>0</v>
+        <v>236700</v>
       </c>
       <c r="K92" s="51">
         <f>+'SR - Regional'!I45</f>
@@ -8089,7 +8091,7 @@
       </c>
       <c r="J93" s="51">
         <f>+'SR - Regional'!H46</f>
-        <v>0</v>
+        <v>106200</v>
       </c>
       <c r="K93" s="51">
         <f>+'SR - Regional'!I46</f>
@@ -8155,7 +8157,7 @@
       </c>
       <c r="J94" s="51">
         <f>+'SR - Regional'!H47</f>
-        <v>0</v>
+        <v>915600</v>
       </c>
       <c r="K94" s="51">
         <f>+'SR - Regional'!I47</f>
@@ -8221,7 +8223,7 @@
       </c>
       <c r="J95" s="51">
         <f>+'SR - Regional'!H48</f>
-        <v>0</v>
+        <v>20700</v>
       </c>
       <c r="K95" s="51">
         <f>+'SR - Regional'!I48</f>
@@ -8287,7 +8289,7 @@
       </c>
       <c r="J96" s="51">
         <f>+'SR - Regional'!H49</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K96" s="51">
         <f>+'SR - Regional'!I49</f>
@@ -8353,7 +8355,7 @@
       </c>
       <c r="J97" s="51">
         <f>+'SR - Regional'!H50</f>
-        <v>0</v>
+        <v>603000</v>
       </c>
       <c r="K97" s="51">
         <f>+'SR - Regional'!I50</f>
@@ -8419,7 +8421,7 @@
       </c>
       <c r="J98" s="51">
         <f>+'SR - Regional'!H51</f>
-        <v>0</v>
+        <v>22800</v>
       </c>
       <c r="K98" s="51">
         <f>+'SR - Regional'!I51</f>
@@ -8485,7 +8487,7 @@
       </c>
       <c r="J99" s="51">
         <f>+'SR - Regional'!H52</f>
-        <v>0</v>
+        <v>70500</v>
       </c>
       <c r="K99" s="51">
         <f>+'SR - Regional'!I52</f>
@@ -8551,7 +8553,7 @@
       </c>
       <c r="J100" s="51">
         <f>+'SR - Regional'!H53</f>
-        <v>0</v>
+        <v>44100</v>
       </c>
       <c r="K100" s="51">
         <f>+'SR - Regional'!I53</f>
@@ -8617,7 +8619,7 @@
       </c>
       <c r="J101" s="51">
         <f>+'SR - Regional'!H54</f>
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="K101" s="51">
         <f>+'SR - Regional'!I54</f>
@@ -8683,7 +8685,7 @@
       </c>
       <c r="J102" s="51">
         <f>+'SR - Regional'!H55</f>
-        <v>0</v>
+        <v>133500</v>
       </c>
       <c r="K102" s="51">
         <f>+'SR - Regional'!I55</f>
@@ -8749,7 +8751,7 @@
       </c>
       <c r="J103" s="51">
         <f>+'SR - Regional'!H56</f>
-        <v>0</v>
+        <v>44100</v>
       </c>
       <c r="K103" s="51">
         <f>+'SR - Regional'!I56</f>
@@ -8815,7 +8817,7 @@
       </c>
       <c r="J104" s="51">
         <f>+'SR - Regional'!H57</f>
-        <v>0</v>
+        <v>13500</v>
       </c>
       <c r="K104" s="51">
         <f>+'SR - Regional'!I57</f>
@@ -8881,7 +8883,7 @@
       </c>
       <c r="J105" s="51">
         <f>+'SR - Regional'!H58</f>
-        <v>0</v>
+        <v>9300</v>
       </c>
       <c r="K105" s="51">
         <f>+'SR - Regional'!I58</f>
@@ -8947,7 +8949,7 @@
       </c>
       <c r="J106" s="51">
         <f>+'SR - Regional'!H59</f>
-        <v>0</v>
+        <v>9600</v>
       </c>
       <c r="K106" s="51">
         <f>+'SR - Regional'!I59</f>
@@ -9013,7 +9015,7 @@
       </c>
       <c r="J107" s="51">
         <f>+'SR - Regional'!H60</f>
-        <v>0</v>
+        <v>5700</v>
       </c>
       <c r="K107" s="51">
         <f>+'SR - Regional'!I60</f>
@@ -9079,7 +9081,7 @@
       </c>
       <c r="J108" s="51">
         <f>+'SR - Regional'!H61</f>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="K108" s="51">
         <f>+'SR - Regional'!I61</f>
@@ -9145,7 +9147,7 @@
       </c>
       <c r="J109" s="51">
         <f>+'SR - Regional'!H62</f>
-        <v>0</v>
+        <v>41400</v>
       </c>
       <c r="K109" s="51">
         <f>+'SR - Regional'!I62</f>
@@ -9177,21 +9179,21 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q109"/>
+  <autoFilter ref="A1:Q109" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A6:P1000"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16:G17"/>
+    <sheetView topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -9204,44 +9206,44 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:16">
-      <c r="A6" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="75"/>
+      <c r="A6" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="76"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="75"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="76"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1"/>
@@ -9261,28 +9263,28 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="75"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="76"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="76"/>
-      <c r="B10" s="77"/>
+      <c r="A10" s="77"/>
+      <c r="B10" s="78"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9302,22 +9304,22 @@
       <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="78">
+      <c r="C11" s="79">
         <v>2024</v>
       </c>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="79"/>
-      <c r="P11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="80"/>
+      <c r="P11" s="81"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="7" t="s">
@@ -9391,7 +9393,9 @@
       <c r="G13" s="13">
         <v>10738800</v>
       </c>
-      <c r="H13" s="13"/>
+      <c r="H13" s="13">
+        <v>10682100</v>
+      </c>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
@@ -9401,7 +9405,7 @@
       <c r="O13" s="13"/>
       <c r="P13" s="16">
         <f t="shared" ref="P13:P14" si="0">SUM(C13:O13)</f>
-        <v>54127500</v>
+        <v>64809600</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -9424,7 +9428,9 @@
       <c r="G14" s="13">
         <v>6638100</v>
       </c>
-      <c r="H14" s="13"/>
+      <c r="H14" s="13">
+        <v>6623700</v>
+      </c>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
@@ -9434,14 +9440,14 @@
       <c r="O14" s="13"/>
       <c r="P14" s="16">
         <f t="shared" si="0"/>
-        <v>33282600</v>
+        <v>39906300</v>
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="70"/>
+      <c r="B15" s="71"/>
       <c r="C15" s="17">
         <f>SUM(C13:C14)</f>
         <v>17622300</v>
@@ -9464,7 +9470,7 @@
       </c>
       <c r="H15" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>17305800</v>
       </c>
       <c r="I15" s="17">
         <f t="shared" si="2"/>
@@ -9496,7 +9502,7 @@
       </c>
       <c r="P15" s="18">
         <f t="shared" si="1"/>
-        <v>87410100</v>
+        <v>104715900</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -9521,7 +9527,9 @@
       <c r="G16" s="13">
         <v>256500</v>
       </c>
-      <c r="H16" s="13"/>
+      <c r="H16" s="13">
+        <v>252600</v>
+      </c>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
@@ -9531,7 +9539,7 @@
       <c r="O16" s="13"/>
       <c r="P16" s="16">
         <f t="shared" ref="P16:P17" si="3">SUM(C16:O16)</f>
-        <v>1334400</v>
+        <v>1587000</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -9554,7 +9562,9 @@
       <c r="G17" s="13">
         <v>137100</v>
       </c>
-      <c r="H17" s="13"/>
+      <c r="H17" s="13">
+        <v>135000</v>
+      </c>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
@@ -9564,14 +9574,14 @@
       <c r="O17" s="13"/>
       <c r="P17" s="16">
         <f t="shared" si="3"/>
-        <v>699600</v>
+        <v>834600</v>
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="70"/>
+      <c r="B18" s="71"/>
       <c r="C18" s="19">
         <f>SUM(C16:C17)</f>
         <v>418200</v>
@@ -9594,7 +9604,7 @@
       </c>
       <c r="H18" s="19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>387600</v>
       </c>
       <c r="I18" s="19">
         <f t="shared" si="5"/>
@@ -9626,14 +9636,14 @@
       </c>
       <c r="P18" s="18">
         <f t="shared" si="4"/>
-        <v>2034000</v>
+        <v>2421600</v>
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="72"/>
+      <c r="B19" s="73"/>
       <c r="C19" s="20">
         <f t="shared" ref="C19:P19" si="6">SUM(C15,C18)</f>
         <v>18040500</v>
@@ -9656,7 +9666,7 @@
       </c>
       <c r="H19" s="20">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>17693400</v>
       </c>
       <c r="I19" s="20">
         <f t="shared" si="6"/>
@@ -9688,7 +9698,7 @@
       </c>
       <c r="P19" s="16">
         <f t="shared" si="6"/>
-        <v>89444100</v>
+        <v>107137500</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1"/>
@@ -10707,11 +10717,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A6:P1000"/>
   <sheetViews>
-    <sheetView topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25:G26"/>
+    <sheetView topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -10724,44 +10734,44 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:16">
-      <c r="A6" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="75"/>
+      <c r="A6" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="76"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="75"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="76"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1"/>
@@ -10782,29 +10792,29 @@
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="75"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="76"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="76"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
+      <c r="A10" s="77"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -10820,34 +10830,34 @@
       <c r="P10" s="2"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="87" t="s">
+      <c r="A11" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="88"/>
-      <c r="C11" s="78">
+      <c r="B11" s="89"/>
+      <c r="C11" s="79">
         <v>2024</v>
       </c>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="84"/>
-      <c r="P11" s="85" t="s">
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="85"/>
+      <c r="P11" s="86" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="90"/>
+      <c r="B12" s="91"/>
       <c r="C12" s="5" t="s">
         <v>6</v>
       </c>
@@ -10887,13 +10897,13 @@
       <c r="O12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P12" s="86"/>
+      <c r="P12" s="87"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="81" t="s">
+      <c r="A13" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="82"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="13">
         <v>11200800</v>
       </c>
@@ -10909,7 +10919,9 @@
       <c r="G13" s="13">
         <v>10995300</v>
       </c>
-      <c r="H13" s="13"/>
+      <c r="H13" s="13">
+        <v>10934700</v>
+      </c>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
@@ -10919,14 +10931,14 @@
       <c r="O13" s="13"/>
       <c r="P13" s="22">
         <f t="shared" ref="P13:P14" si="0">SUM(C13:O13)</f>
-        <v>55461900</v>
+        <v>66396600</v>
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="81" t="s">
+      <c r="A14" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="82"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="13">
         <v>6839700</v>
       </c>
@@ -10942,7 +10954,9 @@
       <c r="G14" s="13">
         <v>6775200</v>
       </c>
-      <c r="H14" s="13"/>
+      <c r="H14" s="13">
+        <v>6758700</v>
+      </c>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
@@ -10952,14 +10966,14 @@
       <c r="O14" s="13"/>
       <c r="P14" s="22">
         <f t="shared" si="0"/>
-        <v>33982200</v>
+        <v>40740900</v>
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="82"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="20">
         <f t="shared" ref="C15:P15" si="1">SUM(C13:C14)</f>
         <v>18040500</v>
@@ -10982,7 +10996,7 @@
       </c>
       <c r="H15" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17693400</v>
       </c>
       <c r="I15" s="20">
         <f t="shared" si="1"/>
@@ -11014,7 +11028,7 @@
       </c>
       <c r="P15" s="22">
         <f t="shared" si="1"/>
-        <v>89444100</v>
+        <v>107137500</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -11048,64 +11062,64 @@
       <c r="O17" s="13"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="74"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="75"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="76"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="76"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="77"/>
+      <c r="A19" s="77"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="78"/>
+      <c r="O19" s="78"/>
+      <c r="P19" s="78"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="4"/>
       <c r="B20" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="78">
+      <c r="C20" s="79">
         <v>2024</v>
       </c>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="84"/>
-      <c r="P20" s="85" t="s">
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="85"/>
+      <c r="P20" s="86" t="s">
         <v>19</v>
       </c>
     </row>
@@ -11155,7 +11169,7 @@
       <c r="O21" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="P21" s="86"/>
+      <c r="P21" s="87"/>
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A22" s="10" t="s">
@@ -11179,7 +11193,9 @@
       <c r="G22" s="25">
         <v>6054300</v>
       </c>
-      <c r="H22" s="25"/>
+      <c r="H22" s="25">
+        <v>6016800</v>
+      </c>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
       <c r="K22" s="25"/>
@@ -11189,7 +11205,7 @@
       <c r="O22" s="25"/>
       <c r="P22" s="26">
         <f t="shared" ref="P22:P27" si="2">SUM(C22:O22)</f>
-        <v>30627300</v>
+        <v>36644100</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
@@ -11212,7 +11228,9 @@
       <c r="G23" s="25">
         <v>4941000</v>
       </c>
-      <c r="H23" s="25"/>
+      <c r="H23" s="25">
+        <v>4917900</v>
+      </c>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
@@ -11222,14 +11240,14 @@
       <c r="O23" s="25"/>
       <c r="P23" s="26">
         <f t="shared" si="2"/>
-        <v>24834600</v>
+        <v>29752500</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="70"/>
+      <c r="B24" s="71"/>
       <c r="C24" s="17">
         <f t="shared" ref="C24:E24" si="3">SUM(C22:C23)</f>
         <v>11200800</v>
@@ -11252,7 +11270,7 @@
       </c>
       <c r="H24" s="27">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10934700</v>
       </c>
       <c r="I24" s="27">
         <f t="shared" si="4"/>
@@ -11284,7 +11302,7 @@
       </c>
       <c r="P24" s="26">
         <f t="shared" si="2"/>
-        <v>55461900</v>
+        <v>66396600</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" customHeight="1">
@@ -11309,7 +11327,9 @@
       <c r="G25" s="25">
         <v>120600</v>
       </c>
-      <c r="H25" s="25"/>
+      <c r="H25" s="25">
+        <v>120300</v>
+      </c>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
@@ -11319,7 +11339,7 @@
       <c r="O25" s="25"/>
       <c r="P25" s="26">
         <f t="shared" si="2"/>
-        <v>606600</v>
+        <v>726900</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15.75" customHeight="1">
@@ -11342,7 +11362,9 @@
       <c r="G26" s="25">
         <v>6654600</v>
       </c>
-      <c r="H26" s="25"/>
+      <c r="H26" s="25">
+        <v>6638400</v>
+      </c>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
@@ -11352,14 +11374,14 @@
       <c r="O26" s="25"/>
       <c r="P26" s="26">
         <f t="shared" si="2"/>
-        <v>33375600</v>
+        <v>40014000</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A27" s="69" t="s">
+      <c r="A27" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="70"/>
+      <c r="B27" s="71"/>
       <c r="C27" s="17">
         <f t="shared" ref="C27:D27" si="5">SUM(C25:C26)</f>
         <v>6839700</v>
@@ -11382,7 +11404,7 @@
       </c>
       <c r="H27" s="27">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6758700</v>
       </c>
       <c r="I27" s="27">
         <f t="shared" si="6"/>
@@ -11414,14 +11436,14 @@
       </c>
       <c r="P27" s="26">
         <f t="shared" si="2"/>
-        <v>33982200</v>
+        <v>40740900</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A28" s="83" t="s">
+      <c r="A28" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="72"/>
+      <c r="B28" s="73"/>
       <c r="C28" s="20">
         <f t="shared" ref="C28:D28" si="7">C27+C24</f>
         <v>18040500</v>
@@ -11444,7 +11466,7 @@
       </c>
       <c r="H28" s="20">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>17693400</v>
       </c>
       <c r="I28" s="20">
         <f t="shared" si="8"/>
@@ -11476,7 +11498,7 @@
       </c>
       <c r="P28" s="26">
         <f>SUM(P24,P27)</f>
-        <v>89444100</v>
+        <v>107137500</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1"/>
@@ -12563,11 +12585,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A6:O1000"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:F15"/>
+    <sheetView topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -12579,42 +12601,42 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:15">
-      <c r="A6" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="75"/>
+      <c r="A6" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="76"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="75"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="76"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1"/>
@@ -12649,23 +12671,23 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="75"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="76"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="48"/>
@@ -12687,22 +12709,22 @@
       <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="89">
+      <c r="B12" s="90">
         <v>2024</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="91"/>
-      <c r="M12" s="91"/>
-      <c r="N12" s="91"/>
-      <c r="O12" s="92"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="93"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" thickBot="1">
       <c r="A13" s="7" t="s">
@@ -12770,7 +12792,9 @@
       <c r="F14" s="13">
         <v>16137900</v>
       </c>
-      <c r="G14" s="13"/>
+      <c r="G14" s="13">
+        <v>16064700</v>
+      </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
@@ -12780,7 +12804,7 @@
       <c r="N14" s="13"/>
       <c r="O14" s="30">
         <f t="shared" ref="O14:O15" si="0">SUM(B14:N14)</f>
-        <v>81231600</v>
+        <v>97296300</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" thickBot="1">
@@ -12802,7 +12826,9 @@
       <c r="F15" s="13">
         <v>1632600</v>
       </c>
-      <c r="G15" s="13"/>
+      <c r="G15" s="13">
+        <v>1628700</v>
+      </c>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
@@ -12812,7 +12838,7 @@
       <c r="N15" s="13"/>
       <c r="O15" s="30">
         <f t="shared" si="0"/>
-        <v>8212500</v>
+        <v>9841200</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -12841,7 +12867,7 @@
       </c>
       <c r="G16" s="32">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>17693400</v>
       </c>
       <c r="H16" s="32">
         <f t="shared" si="2"/>
@@ -12873,7 +12899,7 @@
       </c>
       <c r="O16" s="32">
         <f t="shared" si="2"/>
-        <v>89444100</v>
+        <v>107137500</v>
       </c>
     </row>
     <row r="18" spans="2:5">
@@ -13874,11 +13900,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A6:O1000"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:F16"/>
+    <sheetView topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -13891,42 +13917,42 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:15">
-      <c r="A6" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="75"/>
+      <c r="A6" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="76"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="75"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="76"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1"/>
@@ -13961,23 +13987,23 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="75"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="76"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="48"/>
@@ -13999,22 +14025,22 @@
       <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="89">
+      <c r="B12" s="90">
         <v>2024</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="91"/>
-      <c r="M12" s="91"/>
-      <c r="N12" s="91"/>
-      <c r="O12" s="92"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="93"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="7" t="s">
@@ -14082,7 +14108,9 @@
       <c r="F14" s="67">
         <v>0</v>
       </c>
-      <c r="G14" s="12"/>
+      <c r="G14" s="69">
+        <v>0</v>
+      </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -14114,7 +14142,9 @@
       <c r="F15" s="12">
         <v>600</v>
       </c>
-      <c r="G15" s="12"/>
+      <c r="G15" s="12">
+        <v>600</v>
+      </c>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -14124,7 +14154,7 @@
       <c r="N15" s="12"/>
       <c r="O15" s="38">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -14146,7 +14176,9 @@
       <c r="F16" s="67">
         <v>0</v>
       </c>
-      <c r="G16" s="12"/>
+      <c r="G16" s="69">
+        <v>0</v>
+      </c>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -14178,7 +14210,9 @@
       <c r="F17" s="12">
         <v>3900</v>
       </c>
-      <c r="G17" s="12"/>
+      <c r="G17" s="12">
+        <v>4200</v>
+      </c>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -14188,7 +14222,7 @@
       <c r="N17" s="12"/>
       <c r="O17" s="38">
         <f t="shared" si="0"/>
-        <v>19800</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -14210,7 +14244,9 @@
       <c r="F18" s="12">
         <v>22800</v>
       </c>
-      <c r="G18" s="12"/>
+      <c r="G18" s="12">
+        <v>22800</v>
+      </c>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -14220,7 +14256,7 @@
       <c r="N18" s="12"/>
       <c r="O18" s="38">
         <f t="shared" si="0"/>
-        <v>112800</v>
+        <v>135600</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -14242,7 +14278,9 @@
       <c r="F19" s="12">
         <v>28500</v>
       </c>
-      <c r="G19" s="12"/>
+      <c r="G19" s="12">
+        <v>28500</v>
+      </c>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -14252,7 +14290,7 @@
       <c r="N19" s="12"/>
       <c r="O19" s="38">
         <f t="shared" si="0"/>
-        <v>143700</v>
+        <v>172200</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -14274,7 +14312,9 @@
       <c r="F20" s="12">
         <v>277500</v>
       </c>
-      <c r="G20" s="12"/>
+      <c r="G20" s="12">
+        <v>276600</v>
+      </c>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -14284,7 +14324,7 @@
       <c r="N20" s="12"/>
       <c r="O20" s="38">
         <f t="shared" si="0"/>
-        <v>1401000</v>
+        <v>1677600</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1">
@@ -14306,7 +14346,9 @@
       <c r="F21" s="12">
         <v>521400</v>
       </c>
-      <c r="G21" s="12"/>
+      <c r="G21" s="12">
+        <v>519600</v>
+      </c>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
@@ -14316,7 +14358,7 @@
       <c r="N21" s="12"/>
       <c r="O21" s="38">
         <f t="shared" si="0"/>
-        <v>2622900</v>
+        <v>3142500</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1">
@@ -14338,7 +14380,9 @@
       <c r="F22" s="12">
         <v>6747900</v>
       </c>
-      <c r="G22" s="12"/>
+      <c r="G22" s="12">
+        <v>6731100</v>
+      </c>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -14348,7 +14392,7 @@
       <c r="N22" s="12"/>
       <c r="O22" s="38">
         <f t="shared" si="0"/>
-        <v>33846600</v>
+        <v>40577700</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1">
@@ -14370,7 +14414,9 @@
       <c r="F23" s="12">
         <v>10167900</v>
       </c>
-      <c r="G23" s="12"/>
+      <c r="G23" s="12">
+        <v>10110000</v>
+      </c>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -14380,7 +14426,7 @@
       <c r="N23" s="12"/>
       <c r="O23" s="38">
         <f t="shared" si="0"/>
-        <v>51294300</v>
+        <v>61404300</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1">
@@ -14409,7 +14455,7 @@
       </c>
       <c r="G24" s="40">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17693400</v>
       </c>
       <c r="H24" s="40">
         <f t="shared" si="1"/>
@@ -14441,7 +14487,7 @@
       </c>
       <c r="O24" s="32">
         <f t="shared" si="1"/>
-        <v>89444100</v>
+        <v>107137500</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1"/>
@@ -15434,11 +15480,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A6:O1000"/>
   <sheetViews>
     <sheetView topLeftCell="D31" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25:F25"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -15450,42 +15496,42 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:15">
-      <c r="A6" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="75"/>
+      <c r="A6" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="76"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="75"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="76"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1"/>
@@ -15520,23 +15566,23 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="75"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="76"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="48"/>
@@ -15558,22 +15604,22 @@
       <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="93">
+      <c r="B12" s="94">
         <v>2024</v>
       </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="74"/>
-      <c r="O12" s="75"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="76"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="7" t="s">
@@ -15641,7 +15687,9 @@
       <c r="F14" s="41">
         <v>384300</v>
       </c>
-      <c r="G14" s="41"/>
+      <c r="G14" s="41">
+        <v>381900</v>
+      </c>
       <c r="H14" s="41"/>
       <c r="I14" s="41"/>
       <c r="J14" s="41"/>
@@ -15651,7 +15699,7 @@
       <c r="N14" s="41"/>
       <c r="O14" s="42">
         <f t="shared" ref="O14:O51" si="0">SUM(B14:N14)</f>
-        <v>1918200</v>
+        <v>2300100</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -15673,7 +15721,9 @@
       <c r="F15" s="41">
         <v>1800</v>
       </c>
-      <c r="G15" s="41"/>
+      <c r="G15" s="41">
+        <v>1800</v>
+      </c>
       <c r="H15" s="41"/>
       <c r="I15" s="41"/>
       <c r="J15" s="41"/>
@@ -15683,7 +15733,7 @@
       <c r="N15" s="41"/>
       <c r="O15" s="42">
         <f t="shared" si="0"/>
-        <v>7500</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -15705,7 +15755,9 @@
       <c r="F16" s="41">
         <v>90300</v>
       </c>
-      <c r="G16" s="41"/>
+      <c r="G16" s="41">
+        <v>90600</v>
+      </c>
       <c r="H16" s="41"/>
       <c r="I16" s="41"/>
       <c r="J16" s="41"/>
@@ -15715,7 +15767,7 @@
       <c r="N16" s="41"/>
       <c r="O16" s="42">
         <f t="shared" si="0"/>
-        <v>479400</v>
+        <v>570000</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -15737,7 +15789,9 @@
       <c r="F17" s="41">
         <v>25200</v>
       </c>
-      <c r="G17" s="41"/>
+      <c r="G17" s="41">
+        <v>24300</v>
+      </c>
       <c r="H17" s="41"/>
       <c r="I17" s="41"/>
       <c r="J17" s="41"/>
@@ -15747,7 +15801,7 @@
       <c r="N17" s="41"/>
       <c r="O17" s="42">
         <f t="shared" si="0"/>
-        <v>126300</v>
+        <v>150600</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -15769,7 +15823,9 @@
       <c r="F18" s="41">
         <v>57000</v>
       </c>
-      <c r="G18" s="41"/>
+      <c r="G18" s="41">
+        <v>57000</v>
+      </c>
       <c r="H18" s="41"/>
       <c r="I18" s="41"/>
       <c r="J18" s="41"/>
@@ -15779,7 +15835,7 @@
       <c r="N18" s="41"/>
       <c r="O18" s="42">
         <f t="shared" si="0"/>
-        <v>283500</v>
+        <v>340500</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -15801,7 +15857,9 @@
       <c r="F19" s="41">
         <v>24300</v>
       </c>
-      <c r="G19" s="41"/>
+      <c r="G19" s="41">
+        <v>24600</v>
+      </c>
       <c r="H19" s="41"/>
       <c r="I19" s="41"/>
       <c r="J19" s="41"/>
@@ -15811,7 +15869,7 @@
       <c r="N19" s="41"/>
       <c r="O19" s="42">
         <f t="shared" si="0"/>
-        <v>122100</v>
+        <v>146700</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -15833,7 +15891,9 @@
       <c r="F20" s="41">
         <v>70800</v>
       </c>
-      <c r="G20" s="41"/>
+      <c r="G20" s="41">
+        <v>71400</v>
+      </c>
       <c r="H20" s="41"/>
       <c r="I20" s="41"/>
       <c r="J20" s="41"/>
@@ -15843,7 +15903,7 @@
       <c r="N20" s="41"/>
       <c r="O20" s="42">
         <f t="shared" si="0"/>
-        <v>351600</v>
+        <v>423000</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1">
@@ -15865,7 +15925,9 @@
       <c r="F21" s="41">
         <v>212100</v>
       </c>
-      <c r="G21" s="41"/>
+      <c r="G21" s="41">
+        <v>216300</v>
+      </c>
       <c r="H21" s="41"/>
       <c r="I21" s="41"/>
       <c r="J21" s="41"/>
@@ -15875,7 +15937,7 @@
       <c r="N21" s="41"/>
       <c r="O21" s="42">
         <f t="shared" si="0"/>
-        <v>1062900</v>
+        <v>1279200</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1">
@@ -15897,7 +15959,9 @@
       <c r="F22" s="41">
         <v>137700</v>
       </c>
-      <c r="G22" s="41"/>
+      <c r="G22" s="41">
+        <v>137400</v>
+      </c>
       <c r="H22" s="41"/>
       <c r="I22" s="41"/>
       <c r="J22" s="41"/>
@@ -15907,7 +15971,7 @@
       <c r="N22" s="41"/>
       <c r="O22" s="42">
         <f t="shared" si="0"/>
-        <v>695700</v>
+        <v>833100</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1">
@@ -15929,7 +15993,9 @@
       <c r="F23" s="41">
         <v>73800</v>
       </c>
-      <c r="G23" s="41"/>
+      <c r="G23" s="41">
+        <v>73800</v>
+      </c>
       <c r="H23" s="41"/>
       <c r="I23" s="41"/>
       <c r="J23" s="41"/>
@@ -15939,7 +16005,7 @@
       <c r="N23" s="41"/>
       <c r="O23" s="42">
         <f t="shared" si="0"/>
-        <v>365700</v>
+        <v>439500</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1">
@@ -15961,7 +16027,9 @@
       <c r="F24" s="41">
         <v>49200</v>
       </c>
-      <c r="G24" s="41"/>
+      <c r="G24" s="41">
+        <v>49200</v>
+      </c>
       <c r="H24" s="41"/>
       <c r="I24" s="41"/>
       <c r="J24" s="41"/>
@@ -15971,7 +16039,7 @@
       <c r="N24" s="41"/>
       <c r="O24" s="42">
         <f t="shared" si="0"/>
-        <v>246900</v>
+        <v>296100</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1">
@@ -15993,7 +16061,9 @@
       <c r="F25" s="59">
         <v>0</v>
       </c>
-      <c r="G25" s="41"/>
+      <c r="G25" s="59">
+        <v>0</v>
+      </c>
       <c r="H25" s="41"/>
       <c r="I25" s="41"/>
       <c r="J25" s="41"/>
@@ -16025,7 +16095,9 @@
       <c r="F26" s="41">
         <v>746700</v>
       </c>
-      <c r="G26" s="41"/>
+      <c r="G26" s="41">
+        <v>745500</v>
+      </c>
       <c r="H26" s="41"/>
       <c r="I26" s="41"/>
       <c r="J26" s="41"/>
@@ -16035,7 +16107,7 @@
       <c r="N26" s="41"/>
       <c r="O26" s="42">
         <f t="shared" si="0"/>
-        <v>3749700</v>
+        <v>4495200</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1">
@@ -16057,7 +16129,9 @@
       <c r="F27" s="41">
         <v>102900</v>
       </c>
-      <c r="G27" s="41"/>
+      <c r="G27" s="41">
+        <v>102900</v>
+      </c>
       <c r="H27" s="41"/>
       <c r="I27" s="41"/>
       <c r="J27" s="41"/>
@@ -16067,7 +16141,7 @@
       <c r="N27" s="41"/>
       <c r="O27" s="42">
         <f t="shared" si="0"/>
-        <v>518100</v>
+        <v>621000</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1">
@@ -16089,7 +16163,9 @@
       <c r="F28" s="41">
         <v>1832100</v>
       </c>
-      <c r="G28" s="41"/>
+      <c r="G28" s="41">
+        <v>1824300</v>
+      </c>
       <c r="H28" s="41"/>
       <c r="I28" s="41"/>
       <c r="J28" s="41"/>
@@ -16099,7 +16175,7 @@
       <c r="N28" s="41"/>
       <c r="O28" s="42">
         <f t="shared" si="0"/>
-        <v>9243300</v>
+        <v>11067600</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1">
@@ -16121,7 +16197,9 @@
       <c r="F29" s="41">
         <v>824400</v>
       </c>
-      <c r="G29" s="41"/>
+      <c r="G29" s="41">
+        <v>821700</v>
+      </c>
       <c r="H29" s="41"/>
       <c r="I29" s="41"/>
       <c r="J29" s="41"/>
@@ -16131,7 +16209,7 @@
       <c r="N29" s="41"/>
       <c r="O29" s="42">
         <f t="shared" si="0"/>
-        <v>4153800</v>
+        <v>4975500</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1">
@@ -16153,7 +16231,9 @@
       <c r="F30" s="41">
         <v>923400</v>
       </c>
-      <c r="G30" s="41"/>
+      <c r="G30" s="41">
+        <v>918000</v>
+      </c>
       <c r="H30" s="41"/>
       <c r="I30" s="41"/>
       <c r="J30" s="41"/>
@@ -16163,7 +16243,7 @@
       <c r="N30" s="41"/>
       <c r="O30" s="42">
         <f t="shared" si="0"/>
-        <v>4625700</v>
+        <v>5543700</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1">
@@ -16185,7 +16265,9 @@
       <c r="F31" s="41">
         <v>1136400</v>
       </c>
-      <c r="G31" s="41"/>
+      <c r="G31" s="41">
+        <v>1130400</v>
+      </c>
       <c r="H31" s="41"/>
       <c r="I31" s="41"/>
       <c r="J31" s="41"/>
@@ -16195,7 +16277,7 @@
       <c r="N31" s="41"/>
       <c r="O31" s="42">
         <f t="shared" si="0"/>
-        <v>5704500</v>
+        <v>6834900</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1">
@@ -16217,7 +16299,9 @@
       <c r="F32" s="41">
         <v>230100</v>
       </c>
-      <c r="G32" s="41"/>
+      <c r="G32" s="41">
+        <v>229500</v>
+      </c>
       <c r="H32" s="41"/>
       <c r="I32" s="41"/>
       <c r="J32" s="41"/>
@@ -16227,7 +16311,7 @@
       <c r="N32" s="41"/>
       <c r="O32" s="42">
         <f t="shared" si="0"/>
-        <v>1152300</v>
+        <v>1381800</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1">
@@ -16249,7 +16333,9 @@
       <c r="F33" s="41">
         <v>720000</v>
       </c>
-      <c r="G33" s="41"/>
+      <c r="G33" s="41">
+        <v>713400</v>
+      </c>
       <c r="H33" s="41"/>
       <c r="I33" s="41"/>
       <c r="J33" s="41"/>
@@ -16259,7 +16345,7 @@
       <c r="N33" s="41"/>
       <c r="O33" s="42">
         <f t="shared" si="0"/>
-        <v>3634200</v>
+        <v>4347600</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1">
@@ -16281,7 +16367,9 @@
       <c r="F34" s="41">
         <v>535500</v>
       </c>
-      <c r="G34" s="41"/>
+      <c r="G34" s="41">
+        <v>538200</v>
+      </c>
       <c r="H34" s="41"/>
       <c r="I34" s="41"/>
       <c r="J34" s="41"/>
@@ -16291,7 +16379,7 @@
       <c r="N34" s="41"/>
       <c r="O34" s="42">
         <f t="shared" si="0"/>
-        <v>2695800</v>
+        <v>3234000</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1">
@@ -16313,7 +16401,9 @@
       <c r="F35" s="41">
         <v>3300</v>
       </c>
-      <c r="G35" s="41"/>
+      <c r="G35" s="41">
+        <v>3300</v>
+      </c>
       <c r="H35" s="41"/>
       <c r="I35" s="41"/>
       <c r="J35" s="41"/>
@@ -16323,7 +16413,7 @@
       <c r="N35" s="41"/>
       <c r="O35" s="42">
         <f t="shared" si="0"/>
-        <v>17400</v>
+        <v>20700</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1">
@@ -16345,7 +16435,9 @@
       <c r="F36" s="41">
         <v>1320600</v>
       </c>
-      <c r="G36" s="41"/>
+      <c r="G36" s="41">
+        <v>1314600</v>
+      </c>
       <c r="H36" s="41"/>
       <c r="I36" s="41"/>
       <c r="J36" s="41"/>
@@ -16355,7 +16447,7 @@
       <c r="N36" s="41"/>
       <c r="O36" s="42">
         <f t="shared" si="0"/>
-        <v>6666300</v>
+        <v>7980900</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15.75" customHeight="1">
@@ -16377,7 +16469,9 @@
       <c r="F37" s="41">
         <v>360600</v>
       </c>
-      <c r="G37" s="41"/>
+      <c r="G37" s="41">
+        <v>359400</v>
+      </c>
       <c r="H37" s="41"/>
       <c r="I37" s="41"/>
       <c r="J37" s="41"/>
@@ -16387,7 +16481,7 @@
       <c r="N37" s="41"/>
       <c r="O37" s="42">
         <f t="shared" si="0"/>
-        <v>1819500</v>
+        <v>2178900</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="15.75" customHeight="1">
@@ -16409,7 +16503,9 @@
       <c r="F38" s="41">
         <v>4496400</v>
       </c>
-      <c r="G38" s="41"/>
+      <c r="G38" s="41">
+        <v>4470000</v>
+      </c>
       <c r="H38" s="41"/>
       <c r="I38" s="41"/>
       <c r="J38" s="41"/>
@@ -16419,7 +16515,7 @@
       <c r="N38" s="41"/>
       <c r="O38" s="42">
         <f t="shared" si="0"/>
-        <v>22619700</v>
+        <v>27089700</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="15.75" customHeight="1">
@@ -16441,7 +16537,9 @@
       <c r="F39" s="41">
         <v>231300</v>
       </c>
-      <c r="G39" s="41"/>
+      <c r="G39" s="41">
+        <v>229800</v>
+      </c>
       <c r="H39" s="41"/>
       <c r="I39" s="41"/>
       <c r="J39" s="41"/>
@@ -16451,7 +16549,7 @@
       <c r="N39" s="41"/>
       <c r="O39" s="42">
         <f t="shared" si="0"/>
-        <v>1167600</v>
+        <v>1397400</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="15.75" customHeight="1">
@@ -16473,7 +16571,9 @@
       <c r="F40" s="41">
         <v>143400</v>
       </c>
-      <c r="G40" s="41"/>
+      <c r="G40" s="41">
+        <v>142500</v>
+      </c>
       <c r="H40" s="41"/>
       <c r="I40" s="41"/>
       <c r="J40" s="41"/>
@@ -16483,7 +16583,7 @@
       <c r="N40" s="41"/>
       <c r="O40" s="42">
         <f t="shared" si="0"/>
-        <v>716400</v>
+        <v>858900</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="15.75" customHeight="1">
@@ -16505,7 +16605,9 @@
       <c r="F41" s="41">
         <v>648000</v>
       </c>
-      <c r="G41" s="41"/>
+      <c r="G41" s="41">
+        <v>643800</v>
+      </c>
       <c r="H41" s="41"/>
       <c r="I41" s="41"/>
       <c r="J41" s="41"/>
@@ -16515,7 +16617,7 @@
       <c r="N41" s="41"/>
       <c r="O41" s="42">
         <f t="shared" si="0"/>
-        <v>3261600</v>
+        <v>3905400</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1">
@@ -16537,7 +16639,9 @@
       <c r="F42" s="41">
         <v>492600</v>
       </c>
-      <c r="G42" s="41"/>
+      <c r="G42" s="41">
+        <v>493500</v>
+      </c>
       <c r="H42" s="41"/>
       <c r="I42" s="41"/>
       <c r="J42" s="41"/>
@@ -16547,7 +16651,7 @@
       <c r="N42" s="41"/>
       <c r="O42" s="42">
         <f t="shared" si="0"/>
-        <v>2488500</v>
+        <v>2982000</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="1">
@@ -16569,7 +16673,9 @@
       <c r="F43" s="41">
         <v>51000</v>
       </c>
-      <c r="G43" s="41"/>
+      <c r="G43" s="41">
+        <v>50400</v>
+      </c>
       <c r="H43" s="41"/>
       <c r="I43" s="41"/>
       <c r="J43" s="41"/>
@@ -16579,7 +16685,7 @@
       <c r="N43" s="41"/>
       <c r="O43" s="42">
         <f t="shared" si="0"/>
-        <v>254700</v>
+        <v>305100</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1">
@@ -16601,7 +16707,9 @@
       <c r="F44" s="41">
         <v>619800</v>
       </c>
-      <c r="G44" s="41"/>
+      <c r="G44" s="41">
+        <v>618600</v>
+      </c>
       <c r="H44" s="41"/>
       <c r="I44" s="41"/>
       <c r="J44" s="41"/>
@@ -16611,7 +16719,7 @@
       <c r="N44" s="41"/>
       <c r="O44" s="42">
         <f t="shared" si="0"/>
-        <v>3133800</v>
+        <v>3752400</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="15.75" customHeight="1">
@@ -16633,7 +16741,9 @@
       <c r="F45" s="41">
         <v>164100</v>
       </c>
-      <c r="G45" s="41"/>
+      <c r="G45" s="41">
+        <v>163200</v>
+      </c>
       <c r="H45" s="41"/>
       <c r="I45" s="41"/>
       <c r="J45" s="41"/>
@@ -16643,7 +16753,7 @@
       <c r="N45" s="41"/>
       <c r="O45" s="42">
         <f t="shared" si="0"/>
-        <v>827100</v>
+        <v>990300</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="15.75" customHeight="1">
@@ -16665,7 +16775,9 @@
       <c r="F46" s="41">
         <v>348600</v>
       </c>
-      <c r="G46" s="41"/>
+      <c r="G46" s="41">
+        <v>346500</v>
+      </c>
       <c r="H46" s="41"/>
       <c r="I46" s="41"/>
       <c r="J46" s="41"/>
@@ -16675,7 +16787,7 @@
       <c r="N46" s="41"/>
       <c r="O46" s="42">
         <f t="shared" si="0"/>
-        <v>1756200</v>
+        <v>2102700</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="15.75" customHeight="1">
@@ -16697,7 +16809,9 @@
       <c r="F47" s="41">
         <v>70500</v>
       </c>
-      <c r="G47" s="41"/>
+      <c r="G47" s="41">
+        <v>69300</v>
+      </c>
       <c r="H47" s="41"/>
       <c r="I47" s="41"/>
       <c r="J47" s="41"/>
@@ -16707,7 +16821,7 @@
       <c r="N47" s="41"/>
       <c r="O47" s="42">
         <f t="shared" si="0"/>
-        <v>350700</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="15.75" customHeight="1">
@@ -16729,7 +16843,9 @@
       <c r="F48" s="41">
         <v>358500</v>
       </c>
-      <c r="G48" s="41"/>
+      <c r="G48" s="41">
+        <v>355800</v>
+      </c>
       <c r="H48" s="41"/>
       <c r="I48" s="41"/>
       <c r="J48" s="41"/>
@@ -16739,7 +16855,7 @@
       <c r="N48" s="41"/>
       <c r="O48" s="42">
         <f t="shared" si="0"/>
-        <v>1810800</v>
+        <v>2166600</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="15.75" customHeight="1">
@@ -16761,7 +16877,9 @@
       <c r="F49" s="41">
         <v>57300</v>
       </c>
-      <c r="G49" s="41"/>
+      <c r="G49" s="41">
+        <v>57000</v>
+      </c>
       <c r="H49" s="41"/>
       <c r="I49" s="41"/>
       <c r="J49" s="41"/>
@@ -16771,7 +16889,7 @@
       <c r="N49" s="41"/>
       <c r="O49" s="42">
         <f t="shared" si="0"/>
-        <v>287100</v>
+        <v>344100</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="15.75" customHeight="1">
@@ -16793,7 +16911,9 @@
       <c r="F50" s="41">
         <v>86100</v>
       </c>
-      <c r="G50" s="41"/>
+      <c r="G50" s="41">
+        <v>84300</v>
+      </c>
       <c r="H50" s="41"/>
       <c r="I50" s="41"/>
       <c r="J50" s="41"/>
@@ -16803,7 +16923,7 @@
       <c r="N50" s="41"/>
       <c r="O50" s="42">
         <f t="shared" si="0"/>
-        <v>430200</v>
+        <v>514500</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" customHeight="1">
@@ -16825,7 +16945,9 @@
       <c r="F51" s="41">
         <v>140400</v>
       </c>
-      <c r="G51" s="41"/>
+      <c r="G51" s="41">
+        <v>139200</v>
+      </c>
       <c r="H51" s="41"/>
       <c r="I51" s="41"/>
       <c r="J51" s="41"/>
@@ -16835,7 +16957,7 @@
       <c r="N51" s="41"/>
       <c r="O51" s="42">
         <f t="shared" si="0"/>
-        <v>699300</v>
+        <v>838500</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="15.75" customHeight="1">
@@ -16864,7 +16986,7 @@
       </c>
       <c r="G52" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17693400</v>
       </c>
       <c r="H52" s="20">
         <f t="shared" si="1"/>
@@ -16896,7 +17018,7 @@
       </c>
       <c r="O52" s="43">
         <f t="shared" si="1"/>
-        <v>89444100</v>
+        <v>107137500</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="15.75" customHeight="1"/>
@@ -17861,11 +17983,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A6:P1000"/>
   <sheetViews>
-    <sheetView topLeftCell="E40" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView topLeftCell="E16" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -17880,93 +18002,93 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:16">
-      <c r="A6" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="75"/>
+      <c r="A6" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="76"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="75"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="76"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="75"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="76"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="76"/>
-      <c r="B10" s="77"/>
+      <c r="A10" s="77"/>
+      <c r="B10" s="78"/>
     </row>
     <row r="11" spans="1:16">
       <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="78">
+      <c r="C11" s="79">
         <v>2024</v>
       </c>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="79"/>
-      <c r="P11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="80"/>
+      <c r="P11" s="81"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="36" t="s">
@@ -18019,7 +18141,7 @@
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="94" t="s">
+      <c r="A13" s="95" t="s">
         <v>89</v>
       </c>
       <c r="B13" s="36" t="s">
@@ -18040,7 +18162,9 @@
       <c r="G13" s="45">
         <v>5643300</v>
       </c>
-      <c r="H13" s="45"/>
+      <c r="H13" s="45">
+        <v>5619900</v>
+      </c>
       <c r="I13" s="45"/>
       <c r="J13" s="45"/>
       <c r="K13" s="45"/>
@@ -18050,11 +18174,11 @@
       <c r="O13" s="45"/>
       <c r="P13" s="20">
         <f t="shared" ref="P13:P62" si="0">SUM(C13:O13)</f>
-        <v>28345500</v>
+        <v>33965400</v>
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="95"/>
+      <c r="A14" s="96"/>
       <c r="B14" s="36" t="s">
         <v>90</v>
       </c>
@@ -18073,7 +18197,9 @@
       <c r="G14" s="45">
         <v>300</v>
       </c>
-      <c r="H14" s="45"/>
+      <c r="H14" s="45">
+        <v>300</v>
+      </c>
       <c r="I14" s="45"/>
       <c r="J14" s="45"/>
       <c r="K14" s="45"/>
@@ -18083,11 +18209,11 @@
       <c r="O14" s="45"/>
       <c r="P14" s="20">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="95"/>
+      <c r="A15" s="96"/>
       <c r="B15" s="36" t="s">
         <v>91</v>
       </c>
@@ -18106,7 +18232,9 @@
       <c r="G15" s="45">
         <v>80100</v>
       </c>
-      <c r="H15" s="45"/>
+      <c r="H15" s="45">
+        <v>78000</v>
+      </c>
       <c r="I15" s="45"/>
       <c r="J15" s="45"/>
       <c r="K15" s="45"/>
@@ -18116,11 +18244,11 @@
       <c r="O15" s="45"/>
       <c r="P15" s="20">
         <f t="shared" si="0"/>
-        <v>407700</v>
+        <v>485700</v>
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="96"/>
+      <c r="A16" s="97"/>
       <c r="B16" s="36" t="s">
         <v>92</v>
       </c>
@@ -18139,7 +18267,9 @@
       <c r="G16" s="45">
         <v>15300</v>
       </c>
-      <c r="H16" s="45"/>
+      <c r="H16" s="45">
+        <v>15300</v>
+      </c>
       <c r="I16" s="45"/>
       <c r="J16" s="45"/>
       <c r="K16" s="45"/>
@@ -18149,11 +18279,11 @@
       <c r="O16" s="45"/>
       <c r="P16" s="20">
         <f t="shared" si="0"/>
-        <v>82500</v>
+        <v>97800</v>
       </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="95" t="s">
         <v>93</v>
       </c>
       <c r="B17" s="36" t="s">
@@ -18174,7 +18304,9 @@
       <c r="G17" s="45">
         <v>3988500</v>
       </c>
-      <c r="H17" s="45"/>
+      <c r="H17" s="45">
+        <v>3970200</v>
+      </c>
       <c r="I17" s="45"/>
       <c r="J17" s="45"/>
       <c r="K17" s="45"/>
@@ -18184,11 +18316,11 @@
       <c r="O17" s="45"/>
       <c r="P17" s="20">
         <f t="shared" si="0"/>
-        <v>20086200</v>
+        <v>24056400</v>
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="95"/>
+      <c r="A18" s="96"/>
       <c r="B18" s="36" t="s">
         <v>94</v>
       </c>
@@ -18207,7 +18339,9 @@
       <c r="G18" s="45">
         <v>182700</v>
       </c>
-      <c r="H18" s="45"/>
+      <c r="H18" s="45">
+        <v>181200</v>
+      </c>
       <c r="I18" s="45"/>
       <c r="J18" s="45"/>
       <c r="K18" s="45"/>
@@ -18217,11 +18351,11 @@
       <c r="O18" s="45"/>
       <c r="P18" s="20">
         <f t="shared" si="0"/>
-        <v>927900</v>
+        <v>1109100</v>
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="95"/>
+      <c r="A19" s="96"/>
       <c r="B19" s="36" t="s">
         <v>95</v>
       </c>
@@ -18240,7 +18374,9 @@
       <c r="G19" s="45">
         <v>19200</v>
       </c>
-      <c r="H19" s="45"/>
+      <c r="H19" s="45">
+        <v>19200</v>
+      </c>
       <c r="I19" s="45"/>
       <c r="J19" s="45"/>
       <c r="K19" s="45"/>
@@ -18250,11 +18386,11 @@
       <c r="O19" s="45"/>
       <c r="P19" s="20">
         <f t="shared" si="0"/>
-        <v>97200</v>
+        <v>116400</v>
       </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="96"/>
+      <c r="A20" s="97"/>
       <c r="B20" s="36" t="s">
         <v>96</v>
       </c>
@@ -18273,7 +18409,9 @@
       <c r="G20" s="45">
         <v>8400</v>
       </c>
-      <c r="H20" s="45"/>
+      <c r="H20" s="45">
+        <v>8400</v>
+      </c>
       <c r="I20" s="45"/>
       <c r="J20" s="45"/>
       <c r="K20" s="45"/>
@@ -18283,11 +18421,11 @@
       <c r="O20" s="45"/>
       <c r="P20" s="20">
         <f t="shared" si="0"/>
-        <v>41400</v>
+        <v>49800</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="95" t="s">
         <v>97</v>
       </c>
       <c r="B21" s="36" t="s">
@@ -18308,7 +18446,9 @@
       <c r="G21" s="45">
         <v>2384400</v>
       </c>
-      <c r="H21" s="45"/>
+      <c r="H21" s="45">
+        <v>2382600</v>
+      </c>
       <c r="I21" s="45"/>
       <c r="J21" s="45"/>
       <c r="K21" s="45"/>
@@ -18318,11 +18458,11 @@
       <c r="O21" s="45"/>
       <c r="P21" s="20">
         <f t="shared" si="0"/>
-        <v>12008100</v>
+        <v>14390700</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A22" s="95"/>
+      <c r="A22" s="96"/>
       <c r="B22" s="36" t="s">
         <v>99</v>
       </c>
@@ -18341,7 +18481,9 @@
       <c r="G22" s="45">
         <v>126300</v>
       </c>
-      <c r="H22" s="45"/>
+      <c r="H22" s="45">
+        <v>126000</v>
+      </c>
       <c r="I22" s="45"/>
       <c r="J22" s="45"/>
       <c r="K22" s="45"/>
@@ -18351,11 +18493,11 @@
       <c r="O22" s="45"/>
       <c r="P22" s="20">
         <f t="shared" si="0"/>
-        <v>638100</v>
+        <v>764100</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A23" s="95"/>
+      <c r="A23" s="96"/>
       <c r="B23" s="36" t="s">
         <v>100</v>
       </c>
@@ -18374,7 +18516,9 @@
       <c r="G23" s="45">
         <v>26400</v>
       </c>
-      <c r="H23" s="45"/>
+      <c r="H23" s="45">
+        <v>26100</v>
+      </c>
       <c r="I23" s="45"/>
       <c r="J23" s="45"/>
       <c r="K23" s="45"/>
@@ -18384,11 +18528,11 @@
       <c r="O23" s="45"/>
       <c r="P23" s="20">
         <f t="shared" si="0"/>
-        <v>133800</v>
+        <v>159900</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A24" s="95"/>
+      <c r="A24" s="96"/>
       <c r="B24" s="36" t="s">
         <v>101</v>
       </c>
@@ -18407,7 +18551,9 @@
       <c r="G24" s="45">
         <v>25200</v>
       </c>
-      <c r="H24" s="45"/>
+      <c r="H24" s="45">
+        <v>24900</v>
+      </c>
       <c r="I24" s="45"/>
       <c r="J24" s="45"/>
       <c r="K24" s="45"/>
@@ -18417,11 +18563,11 @@
       <c r="O24" s="45"/>
       <c r="P24" s="20">
         <f t="shared" si="0"/>
-        <v>126600</v>
+        <v>151500</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A25" s="95"/>
+      <c r="A25" s="96"/>
       <c r="B25" s="36" t="s">
         <v>102</v>
       </c>
@@ -18440,7 +18586,9 @@
       <c r="G25" s="45">
         <v>36600</v>
       </c>
-      <c r="H25" s="45"/>
+      <c r="H25" s="45">
+        <v>36300</v>
+      </c>
       <c r="I25" s="45"/>
       <c r="J25" s="45"/>
       <c r="K25" s="45"/>
@@ -18450,11 +18598,11 @@
       <c r="O25" s="45"/>
       <c r="P25" s="20">
         <f t="shared" si="0"/>
-        <v>185100</v>
+        <v>221400</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A26" s="95"/>
+      <c r="A26" s="96"/>
       <c r="B26" s="36" t="s">
         <v>103</v>
       </c>
@@ -18473,7 +18621,9 @@
       <c r="G26" s="45">
         <v>45900</v>
       </c>
-      <c r="H26" s="45"/>
+      <c r="H26" s="45">
+        <v>45600</v>
+      </c>
       <c r="I26" s="45"/>
       <c r="J26" s="45"/>
       <c r="K26" s="45"/>
@@ -18483,11 +18633,11 @@
       <c r="O26" s="45"/>
       <c r="P26" s="20">
         <f t="shared" si="0"/>
-        <v>235200</v>
+        <v>280800</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A27" s="95"/>
+      <c r="A27" s="96"/>
       <c r="B27" s="36" t="s">
         <v>104</v>
       </c>
@@ -18506,7 +18656,9 @@
       <c r="G27" s="45">
         <v>99900</v>
       </c>
-      <c r="H27" s="45"/>
+      <c r="H27" s="45">
+        <v>99000</v>
+      </c>
       <c r="I27" s="45"/>
       <c r="J27" s="45"/>
       <c r="K27" s="45"/>
@@ -18516,11 +18668,11 @@
       <c r="O27" s="45"/>
       <c r="P27" s="20">
         <f t="shared" si="0"/>
-        <v>504900</v>
+        <v>603900</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A28" s="95"/>
+      <c r="A28" s="96"/>
       <c r="B28" s="36" t="s">
         <v>105</v>
       </c>
@@ -18539,7 +18691,9 @@
       <c r="G28" s="45">
         <v>4200</v>
       </c>
-      <c r="H28" s="45"/>
+      <c r="H28" s="45">
+        <v>4200</v>
+      </c>
       <c r="I28" s="45"/>
       <c r="J28" s="45"/>
       <c r="K28" s="45"/>
@@ -18549,11 +18703,11 @@
       <c r="O28" s="45"/>
       <c r="P28" s="20">
         <f t="shared" si="0"/>
-        <v>22200</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A29" s="95"/>
+      <c r="A29" s="96"/>
       <c r="B29" s="36" t="s">
         <v>106</v>
       </c>
@@ -18572,7 +18726,9 @@
       <c r="G29" s="45">
         <v>21900</v>
       </c>
-      <c r="H29" s="45"/>
+      <c r="H29" s="45">
+        <v>21900</v>
+      </c>
       <c r="I29" s="45"/>
       <c r="J29" s="45"/>
       <c r="K29" s="45"/>
@@ -18582,11 +18738,11 @@
       <c r="O29" s="45"/>
       <c r="P29" s="20">
         <f t="shared" si="0"/>
-        <v>109800</v>
+        <v>131700</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A30" s="95"/>
+      <c r="A30" s="96"/>
       <c r="B30" s="36" t="s">
         <v>107</v>
       </c>
@@ -18605,7 +18761,9 @@
       <c r="G30" s="45">
         <v>2700</v>
       </c>
-      <c r="H30" s="45"/>
+      <c r="H30" s="45">
+        <v>2700</v>
+      </c>
       <c r="I30" s="45"/>
       <c r="J30" s="45"/>
       <c r="K30" s="45"/>
@@ -18615,11 +18773,11 @@
       <c r="O30" s="45"/>
       <c r="P30" s="20">
         <f t="shared" si="0"/>
-        <v>13500</v>
+        <v>16200</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A31" s="95"/>
+      <c r="A31" s="96"/>
       <c r="B31" s="36" t="s">
         <v>108</v>
       </c>
@@ -18638,7 +18796,9 @@
       <c r="G31" s="45">
         <v>4200</v>
       </c>
-      <c r="H31" s="45"/>
+      <c r="H31" s="45">
+        <v>4200</v>
+      </c>
       <c r="I31" s="45"/>
       <c r="J31" s="45"/>
       <c r="K31" s="45"/>
@@ -18648,11 +18808,11 @@
       <c r="O31" s="45"/>
       <c r="P31" s="20">
         <f t="shared" si="0"/>
-        <v>21000</v>
+        <v>25200</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A32" s="95"/>
+      <c r="A32" s="96"/>
       <c r="B32" s="36" t="s">
         <v>109</v>
       </c>
@@ -18671,7 +18831,9 @@
       <c r="G32" s="45">
         <v>15900</v>
       </c>
-      <c r="H32" s="45"/>
+      <c r="H32" s="45">
+        <v>15900</v>
+      </c>
       <c r="I32" s="45"/>
       <c r="J32" s="45"/>
       <c r="K32" s="45"/>
@@ -18681,11 +18843,11 @@
       <c r="O32" s="45"/>
       <c r="P32" s="20">
         <f t="shared" si="0"/>
-        <v>81000</v>
+        <v>96900</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A33" s="96"/>
+      <c r="A33" s="97"/>
       <c r="B33" s="36" t="s">
         <v>110</v>
       </c>
@@ -18704,7 +18866,9 @@
       <c r="G33" s="68">
         <v>0</v>
       </c>
-      <c r="H33" s="45"/>
+      <c r="H33" s="45">
+        <v>0</v>
+      </c>
       <c r="I33" s="45"/>
       <c r="J33" s="45"/>
       <c r="K33" s="45"/>
@@ -18718,7 +18882,7 @@
       </c>
     </row>
     <row r="34" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A34" s="94" t="s">
+      <c r="A34" s="95" t="s">
         <v>111</v>
       </c>
       <c r="B34" s="36" t="s">
@@ -18739,7 +18903,9 @@
       <c r="G34" s="45">
         <v>1409700</v>
       </c>
-      <c r="H34" s="45"/>
+      <c r="H34" s="45">
+        <v>1397400</v>
+      </c>
       <c r="I34" s="45"/>
       <c r="J34" s="45"/>
       <c r="K34" s="45"/>
@@ -18749,11 +18915,11 @@
       <c r="O34" s="45"/>
       <c r="P34" s="20">
         <f t="shared" si="0"/>
-        <v>7099800</v>
+        <v>8497200</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A35" s="95"/>
+      <c r="A35" s="96"/>
       <c r="B35" s="36" t="s">
         <v>112</v>
       </c>
@@ -18772,7 +18938,9 @@
       <c r="G35" s="45">
         <v>21600</v>
       </c>
-      <c r="H35" s="45"/>
+      <c r="H35" s="45">
+        <v>21600</v>
+      </c>
       <c r="I35" s="45"/>
       <c r="J35" s="45"/>
       <c r="K35" s="45"/>
@@ -18782,11 +18950,11 @@
       <c r="O35" s="45"/>
       <c r="P35" s="20">
         <f t="shared" si="0"/>
-        <v>108600</v>
+        <v>130200</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A36" s="95"/>
+      <c r="A36" s="96"/>
       <c r="B36" s="36" t="s">
         <v>113</v>
       </c>
@@ -18805,7 +18973,9 @@
       <c r="G36" s="45">
         <v>1200</v>
       </c>
-      <c r="H36" s="45"/>
+      <c r="H36" s="45">
+        <v>1200</v>
+      </c>
       <c r="I36" s="45"/>
       <c r="J36" s="45"/>
       <c r="K36" s="45"/>
@@ -18815,11 +18985,11 @@
       <c r="O36" s="45"/>
       <c r="P36" s="20">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A37" s="95"/>
+      <c r="A37" s="96"/>
       <c r="B37" s="36" t="s">
         <v>114</v>
       </c>
@@ -18838,7 +19008,9 @@
       <c r="G37" s="45">
         <v>168900</v>
       </c>
-      <c r="H37" s="45"/>
+      <c r="H37" s="45">
+        <v>168000</v>
+      </c>
       <c r="I37" s="45"/>
       <c r="J37" s="45"/>
       <c r="K37" s="45"/>
@@ -18848,11 +19020,11 @@
       <c r="O37" s="45"/>
       <c r="P37" s="20">
         <f t="shared" si="0"/>
-        <v>855900</v>
+        <v>1023900</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A38" s="95"/>
+      <c r="A38" s="96"/>
       <c r="B38" s="36" t="s">
         <v>115</v>
       </c>
@@ -18871,7 +19043,9 @@
       <c r="G38" s="45">
         <v>40500</v>
       </c>
-      <c r="H38" s="45"/>
+      <c r="H38" s="45">
+        <v>40200</v>
+      </c>
       <c r="I38" s="45"/>
       <c r="J38" s="45"/>
       <c r="K38" s="45"/>
@@ -18881,11 +19055,11 @@
       <c r="O38" s="45"/>
       <c r="P38" s="20">
         <f t="shared" si="0"/>
-        <v>206100</v>
+        <v>246300</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A39" s="96"/>
+      <c r="A39" s="97"/>
       <c r="B39" s="36" t="s">
         <v>116</v>
       </c>
@@ -18904,7 +19078,9 @@
       <c r="G39" s="68">
         <v>0</v>
       </c>
-      <c r="H39" s="45"/>
+      <c r="H39" s="45">
+        <v>0</v>
+      </c>
       <c r="I39" s="45"/>
       <c r="J39" s="45"/>
       <c r="K39" s="45"/>
@@ -18918,7 +19094,7 @@
       </c>
     </row>
     <row r="40" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A40" s="94" t="s">
+      <c r="A40" s="95" t="s">
         <v>117</v>
       </c>
       <c r="B40" s="36" t="s">
@@ -18939,7 +19115,9 @@
       <c r="G40" s="45">
         <v>1005900</v>
       </c>
-      <c r="H40" s="45"/>
+      <c r="H40" s="45">
+        <v>1005900</v>
+      </c>
       <c r="I40" s="45"/>
       <c r="J40" s="45"/>
       <c r="K40" s="45"/>
@@ -18949,11 +19127,11 @@
       <c r="O40" s="45"/>
       <c r="P40" s="20">
         <f t="shared" si="0"/>
-        <v>5062800</v>
+        <v>6068700</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A41" s="95"/>
+      <c r="A41" s="96"/>
       <c r="B41" s="36" t="s">
         <v>119</v>
       </c>
@@ -18972,7 +19150,9 @@
       <c r="G41" s="45">
         <v>41700</v>
       </c>
-      <c r="H41" s="45"/>
+      <c r="H41" s="45">
+        <v>42300</v>
+      </c>
       <c r="I41" s="45"/>
       <c r="J41" s="45"/>
       <c r="K41" s="45"/>
@@ -18982,11 +19162,11 @@
       <c r="O41" s="45"/>
       <c r="P41" s="20">
         <f t="shared" si="0"/>
-        <v>208200</v>
+        <v>250500</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A42" s="95"/>
+      <c r="A42" s="96"/>
       <c r="B42" s="36" t="s">
         <v>120</v>
       </c>
@@ -19005,7 +19185,9 @@
       <c r="G42" s="45">
         <v>6600</v>
       </c>
-      <c r="H42" s="45"/>
+      <c r="H42" s="45">
+        <v>6600</v>
+      </c>
       <c r="I42" s="45"/>
       <c r="J42" s="45"/>
       <c r="K42" s="45"/>
@@ -19015,11 +19197,11 @@
       <c r="O42" s="45"/>
       <c r="P42" s="20">
         <f t="shared" si="0"/>
-        <v>33000</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A43" s="95"/>
+      <c r="A43" s="96"/>
       <c r="B43" s="36" t="s">
         <v>121</v>
       </c>
@@ -19038,7 +19220,9 @@
       <c r="G43" s="45">
         <v>13200</v>
       </c>
-      <c r="H43" s="45"/>
+      <c r="H43" s="45">
+        <v>12900</v>
+      </c>
       <c r="I43" s="45"/>
       <c r="J43" s="45"/>
       <c r="K43" s="45"/>
@@ -19048,11 +19232,11 @@
       <c r="O43" s="45"/>
       <c r="P43" s="20">
         <f t="shared" si="0"/>
-        <v>68100</v>
+        <v>81000</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A44" s="95"/>
+      <c r="A44" s="96"/>
       <c r="B44" s="36" t="s">
         <v>122</v>
       </c>
@@ -19071,7 +19255,9 @@
       <c r="G44" s="45">
         <v>34500</v>
       </c>
-      <c r="H44" s="45"/>
+      <c r="H44" s="45">
+        <v>34200</v>
+      </c>
       <c r="I44" s="45"/>
       <c r="J44" s="45"/>
       <c r="K44" s="45"/>
@@ -19081,11 +19267,11 @@
       <c r="O44" s="45"/>
       <c r="P44" s="20">
         <f t="shared" si="0"/>
-        <v>177300</v>
+        <v>211500</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A45" s="95"/>
+      <c r="A45" s="96"/>
       <c r="B45" s="36" t="s">
         <v>123</v>
       </c>
@@ -19104,7 +19290,9 @@
       <c r="G45" s="45">
         <v>237900</v>
       </c>
-      <c r="H45" s="45"/>
+      <c r="H45" s="45">
+        <v>236700</v>
+      </c>
       <c r="I45" s="45"/>
       <c r="J45" s="45"/>
       <c r="K45" s="45"/>
@@ -19114,11 +19302,11 @@
       <c r="O45" s="45"/>
       <c r="P45" s="20">
         <f t="shared" si="0"/>
-        <v>1198800</v>
+        <v>1435500</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A46" s="96"/>
+      <c r="A46" s="97"/>
       <c r="B46" s="36" t="s">
         <v>124</v>
       </c>
@@ -19137,7 +19325,9 @@
       <c r="G46" s="45">
         <v>106800</v>
       </c>
-      <c r="H46" s="45"/>
+      <c r="H46" s="45">
+        <v>106200</v>
+      </c>
       <c r="I46" s="45"/>
       <c r="J46" s="45"/>
       <c r="K46" s="45"/>
@@ -19147,11 +19337,11 @@
       <c r="O46" s="45"/>
       <c r="P46" s="20">
         <f t="shared" si="0"/>
-        <v>539700</v>
+        <v>645900</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A47" s="94" t="s">
+      <c r="A47" s="95" t="s">
         <v>125</v>
       </c>
       <c r="B47" s="36" t="s">
@@ -19172,7 +19362,9 @@
       <c r="G47" s="45">
         <v>923700</v>
       </c>
-      <c r="H47" s="45"/>
+      <c r="H47" s="45">
+        <v>915600</v>
+      </c>
       <c r="I47" s="45"/>
       <c r="J47" s="45"/>
       <c r="K47" s="45"/>
@@ -19182,11 +19374,11 @@
       <c r="O47" s="45"/>
       <c r="P47" s="20">
         <f t="shared" si="0"/>
-        <v>4650600</v>
+        <v>5566200</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A48" s="95"/>
+      <c r="A48" s="96"/>
       <c r="B48" s="36" t="s">
         <v>127</v>
       </c>
@@ -19205,7 +19397,9 @@
       <c r="G48" s="45">
         <v>20700</v>
       </c>
-      <c r="H48" s="45"/>
+      <c r="H48" s="45">
+        <v>20700</v>
+      </c>
       <c r="I48" s="45"/>
       <c r="J48" s="45"/>
       <c r="K48" s="45"/>
@@ -19215,11 +19409,11 @@
       <c r="O48" s="45"/>
       <c r="P48" s="20">
         <f t="shared" si="0"/>
-        <v>104400</v>
+        <v>125100</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A49" s="96"/>
+      <c r="A49" s="97"/>
       <c r="B49" s="36" t="s">
         <v>128</v>
       </c>
@@ -19238,7 +19432,9 @@
       <c r="G49" s="45">
         <v>300</v>
       </c>
-      <c r="H49" s="45"/>
+      <c r="H49" s="45">
+        <v>300</v>
+      </c>
       <c r="I49" s="45"/>
       <c r="J49" s="45"/>
       <c r="K49" s="45"/>
@@ -19248,11 +19444,11 @@
       <c r="O49" s="45"/>
       <c r="P49" s="20">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A50" s="94" t="s">
+      <c r="A50" s="95" t="s">
         <v>129</v>
       </c>
       <c r="B50" s="36" t="s">
@@ -19273,7 +19469,9 @@
       <c r="G50" s="45">
         <v>602700</v>
       </c>
-      <c r="H50" s="45"/>
+      <c r="H50" s="45">
+        <v>603000</v>
+      </c>
       <c r="I50" s="45"/>
       <c r="J50" s="45"/>
       <c r="K50" s="45"/>
@@ -19283,11 +19481,11 @@
       <c r="O50" s="45"/>
       <c r="P50" s="20">
         <f t="shared" si="0"/>
-        <v>3018600</v>
+        <v>3621600</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A51" s="95"/>
+      <c r="A51" s="96"/>
       <c r="B51" s="36" t="s">
         <v>130</v>
       </c>
@@ -19306,7 +19504,9 @@
       <c r="G51" s="45">
         <v>22800</v>
       </c>
-      <c r="H51" s="45"/>
+      <c r="H51" s="45">
+        <v>22800</v>
+      </c>
       <c r="I51" s="45"/>
       <c r="J51" s="45"/>
       <c r="K51" s="45"/>
@@ -19316,11 +19516,11 @@
       <c r="O51" s="45"/>
       <c r="P51" s="20">
         <f t="shared" si="0"/>
-        <v>115200</v>
+        <v>138000</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A52" s="95"/>
+      <c r="A52" s="96"/>
       <c r="B52" s="36" t="s">
         <v>131</v>
       </c>
@@ -19339,7 +19539,9 @@
       <c r="G52" s="45">
         <v>72000</v>
       </c>
-      <c r="H52" s="45"/>
+      <c r="H52" s="45">
+        <v>70500</v>
+      </c>
       <c r="I52" s="45"/>
       <c r="J52" s="45"/>
       <c r="K52" s="45"/>
@@ -19349,11 +19551,11 @@
       <c r="O52" s="45"/>
       <c r="P52" s="20">
         <f t="shared" si="0"/>
-        <v>367500</v>
+        <v>438000</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A53" s="95"/>
+      <c r="A53" s="96"/>
       <c r="B53" s="36" t="s">
         <v>132</v>
       </c>
@@ -19372,7 +19574,9 @@
       <c r="G53" s="45">
         <v>44700</v>
       </c>
-      <c r="H53" s="45"/>
+      <c r="H53" s="45">
+        <v>44100</v>
+      </c>
       <c r="I53" s="45"/>
       <c r="J53" s="45"/>
       <c r="K53" s="45"/>
@@ -19382,11 +19586,11 @@
       <c r="O53" s="45"/>
       <c r="P53" s="20">
         <f t="shared" si="0"/>
-        <v>228300</v>
+        <v>272400</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A54" s="96"/>
+      <c r="A54" s="97"/>
       <c r="B54" s="36" t="s">
         <v>133</v>
       </c>
@@ -19405,7 +19609,9 @@
       <c r="G54" s="45">
         <v>1800</v>
       </c>
-      <c r="H54" s="45"/>
+      <c r="H54" s="45">
+        <v>1800</v>
+      </c>
       <c r="I54" s="45"/>
       <c r="J54" s="45"/>
       <c r="K54" s="45"/>
@@ -19415,11 +19621,11 @@
       <c r="O54" s="45"/>
       <c r="P54" s="20">
         <f t="shared" si="0"/>
-        <v>9000</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A55" s="94" t="s">
+      <c r="A55" s="95" t="s">
         <v>134</v>
       </c>
       <c r="B55" s="36" t="s">
@@ -19440,7 +19646,9 @@
       <c r="G55" s="45">
         <v>134700</v>
       </c>
-      <c r="H55" s="45"/>
+      <c r="H55" s="45">
+        <v>133500</v>
+      </c>
       <c r="I55" s="45"/>
       <c r="J55" s="45"/>
       <c r="K55" s="45"/>
@@ -19450,11 +19658,11 @@
       <c r="O55" s="45"/>
       <c r="P55" s="20">
         <f t="shared" si="0"/>
-        <v>674700</v>
+        <v>808200</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A56" s="95"/>
+      <c r="A56" s="96"/>
       <c r="B56" s="36" t="s">
         <v>136</v>
       </c>
@@ -19473,7 +19681,9 @@
       <c r="G56" s="45">
         <v>45000</v>
       </c>
-      <c r="H56" s="45"/>
+      <c r="H56" s="45">
+        <v>44100</v>
+      </c>
       <c r="I56" s="45"/>
       <c r="J56" s="45"/>
       <c r="K56" s="45"/>
@@ -19483,11 +19693,11 @@
       <c r="O56" s="45"/>
       <c r="P56" s="20">
         <f t="shared" si="0"/>
-        <v>228000</v>
+        <v>272100</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A57" s="95"/>
+      <c r="A57" s="96"/>
       <c r="B57" s="36" t="s">
         <v>137</v>
       </c>
@@ -19506,7 +19716,9 @@
       <c r="G57" s="45">
         <v>13800</v>
       </c>
-      <c r="H57" s="45"/>
+      <c r="H57" s="45">
+        <v>13500</v>
+      </c>
       <c r="I57" s="45"/>
       <c r="J57" s="45"/>
       <c r="K57" s="45"/>
@@ -19516,11 +19728,11 @@
       <c r="O57" s="45"/>
       <c r="P57" s="20">
         <f t="shared" si="0"/>
-        <v>66600</v>
+        <v>80100</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A58" s="95"/>
+      <c r="A58" s="96"/>
       <c r="B58" s="36" t="s">
         <v>138</v>
       </c>
@@ -19539,7 +19751,9 @@
       <c r="G58" s="45">
         <v>9300</v>
       </c>
-      <c r="H58" s="45"/>
+      <c r="H58" s="45">
+        <v>9300</v>
+      </c>
       <c r="I58" s="45"/>
       <c r="J58" s="45"/>
       <c r="K58" s="45"/>
@@ -19549,11 +19763,11 @@
       <c r="O58" s="45"/>
       <c r="P58" s="20">
         <f t="shared" si="0"/>
-        <v>46800</v>
+        <v>56100</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A59" s="95"/>
+      <c r="A59" s="96"/>
       <c r="B59" s="36" t="s">
         <v>139</v>
       </c>
@@ -19572,7 +19786,9 @@
       <c r="G59" s="45">
         <v>9600</v>
       </c>
-      <c r="H59" s="45"/>
+      <c r="H59" s="45">
+        <v>9600</v>
+      </c>
       <c r="I59" s="45"/>
       <c r="J59" s="45"/>
       <c r="K59" s="45"/>
@@ -19582,11 +19798,11 @@
       <c r="O59" s="45"/>
       <c r="P59" s="20">
         <f t="shared" si="0"/>
-        <v>48900</v>
+        <v>58500</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A60" s="95"/>
+      <c r="A60" s="96"/>
       <c r="B60" s="36" t="s">
         <v>140</v>
       </c>
@@ -19605,7 +19821,9 @@
       <c r="G60" s="45">
         <v>5700</v>
       </c>
-      <c r="H60" s="45"/>
+      <c r="H60" s="45">
+        <v>5700</v>
+      </c>
       <c r="I60" s="45"/>
       <c r="J60" s="45"/>
       <c r="K60" s="45"/>
@@ -19615,11 +19833,11 @@
       <c r="O60" s="45"/>
       <c r="P60" s="20">
         <f t="shared" si="0"/>
-        <v>29100</v>
+        <v>34800</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A61" s="96"/>
+      <c r="A61" s="97"/>
       <c r="B61" s="36" t="s">
         <v>141</v>
       </c>
@@ -19638,7 +19856,9 @@
       <c r="G61" s="45">
         <v>2400</v>
       </c>
-      <c r="H61" s="45"/>
+      <c r="H61" s="45">
+        <v>2400</v>
+      </c>
       <c r="I61" s="45"/>
       <c r="J61" s="45"/>
       <c r="K61" s="45"/>
@@ -19648,7 +19868,7 @@
       <c r="O61" s="45"/>
       <c r="P61" s="20">
         <f t="shared" si="0"/>
-        <v>13200</v>
+        <v>15600</v>
       </c>
     </row>
     <row r="62" spans="1:16" ht="15.75" customHeight="1">
@@ -19673,7 +19893,9 @@
       <c r="G62" s="45">
         <v>41400</v>
       </c>
-      <c r="H62" s="45"/>
+      <c r="H62" s="45">
+        <v>41400</v>
+      </c>
       <c r="I62" s="45"/>
       <c r="J62" s="45"/>
       <c r="K62" s="45"/>
@@ -19683,7 +19905,7 @@
       <c r="O62" s="45"/>
       <c r="P62" s="20">
         <f t="shared" si="0"/>
-        <v>208200</v>
+        <v>249600</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="15.75" customHeight="1">
@@ -19713,7 +19935,7 @@
       </c>
       <c r="H63" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17693400</v>
       </c>
       <c r="I63" s="20">
         <f t="shared" si="1"/>
@@ -19745,7 +19967,7 @@
       </c>
       <c r="P63" s="20">
         <f t="shared" si="1"/>
-        <v>89444100</v>
+        <v>107137500</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="15.75" customHeight="1">
@@ -19753,8 +19975,8 @@
       <c r="B64" s="1"/>
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A65" s="76"/>
-      <c r="B65" s="77"/>
+      <c r="A65" s="77"/>
+      <c r="B65" s="78"/>
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="67" spans="1:2" ht="15.75" customHeight="1"/>
